--- a/forms/tables/exampleTable/forms/exampleTable/exampleTable.xlsx
+++ b/forms/tables/exampleTable/forms/exampleTable/exampleTable.xlsx
@@ -1,24 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Apps\CWBC\odk-precise-demo\app\config\tables\exampleTable\forms\exampleTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\apps\cwbc\cwbc-odkx-app\forms\tables\exampleTable\forms\exampleTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8504B6-A5E9-412C-8679-0932C986EEE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897FED95-9603-4C12-BA08-262A0933C007}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="3" r:id="rId2"/>
     <sheet name="settings" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>type</t>
   </si>
@@ -38,9 +46,6 @@
     <t>text</t>
   </si>
   <si>
-    <t>Enter your name</t>
-  </si>
-  <si>
     <t>yesno</t>
   </si>
   <si>
@@ -50,9 +55,6 @@
     <t>form_version</t>
   </si>
   <si>
-    <t>Example Form</t>
-  </si>
-  <si>
     <t>setting_name</t>
   </si>
   <si>
@@ -93,6 +95,39 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>clause</t>
+  </si>
+  <si>
+    <t>templatePath</t>
+  </si>
+  <si>
+    <t>begin screen</t>
+  </si>
+  <si>
+    <t>custom_date</t>
+  </si>
+  <si>
+    <t>Specify Date</t>
+  </si>
+  <si>
+    <t>../../../_templates/custom_date_picker.handlebars</t>
+  </si>
+  <si>
+    <t>custom_date_time</t>
+  </si>
+  <si>
+    <t>Specify Date &amp; Time</t>
+  </si>
+  <si>
+    <t>../../../_templates/custom_datetime_picker.handlebars</t>
+  </si>
+  <si>
+    <t>end screen</t>
+  </si>
+  <si>
+    <t>Templates Example Form</t>
   </si>
 </sst>
 </file>
@@ -537,38 +572,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -590,95 +660,95 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:3" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -693,61 +763,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" customWidth="1"/>
-    <col min="2" max="2" width="24.109375" customWidth="1"/>
-    <col min="3" max="3" width="25.109375" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="B3" s="1">
         <v>20200307</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14.65" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/forms/tables/exampleTable/forms/exampleTable/exampleTable.xlsx
+++ b/forms/tables/exampleTable/forms/exampleTable/exampleTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\apps\cwbc\cwbc-odkx-app\forms\tables\exampleTable\forms\exampleTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897FED95-9603-4C12-BA08-262A0933C007}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8FB338-546E-4DEC-92A8-A7A455B0B230}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -112,22 +112,22 @@
     <t>Specify Date</t>
   </si>
   <si>
-    <t>../../../_templates/custom_date_picker.handlebars</t>
-  </si>
-  <si>
     <t>custom_date_time</t>
   </si>
   <si>
     <t>Specify Date &amp; Time</t>
   </si>
   <si>
-    <t>../../../_templates/custom_datetime_picker.handlebars</t>
-  </si>
-  <si>
     <t>end screen</t>
   </si>
   <si>
     <t>Templates Example Form</t>
+  </si>
+  <si>
+    <t>../../../templates/custom_date_picker.handlebars</t>
+  </si>
+  <si>
+    <t>../../../templates/custom_datetime_picker.handlebars</t>
   </si>
 </sst>
 </file>
@@ -575,7 +575,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -619,7 +619,7 @@
         <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
@@ -627,18 +627,18 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
         <v>26</v>
       </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -814,7 +814,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.65" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/forms/tables/exampleTable/forms/exampleTable/exampleTable.xlsx
+++ b/forms/tables/exampleTable/forms/exampleTable/exampleTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\apps\cwbc\cwbc-odkx-app\forms\tables\exampleTable\forms\exampleTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8FB338-546E-4DEC-92A8-A7A455B0B230}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0FEE2D-AE39-4AAD-BC20-8B4503702DBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="2160" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>type</t>
   </si>
@@ -128,6 +128,12 @@
   </si>
   <si>
     <t>../../../templates/custom_datetime_picker.handlebars</t>
+  </si>
+  <si>
+    <t>custom_date_picker.handlebars</t>
+  </si>
+  <si>
+    <t>custom_datetime_picker.handlebars</t>
   </si>
 </sst>
 </file>
@@ -572,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F12" sqref="F12:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -638,6 +644,65 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>27</v>
       </c>
     </row>

--- a/forms/tables/exampleTable/forms/exampleTable/exampleTable.xlsx
+++ b/forms/tables/exampleTable/forms/exampleTable/exampleTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\apps\cwbc\cwbc-odkx-app\forms\tables\exampleTable\forms\exampleTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0FEE2D-AE39-4AAD-BC20-8B4503702DBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7EC1B2-27AF-4B19-B78D-ED688BDC6940}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="2160" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>type</t>
   </si>
@@ -128,12 +128,6 @@
   </si>
   <si>
     <t>../../../templates/custom_datetime_picker.handlebars</t>
-  </si>
-  <si>
-    <t>custom_date_picker.handlebars</t>
-  </si>
-  <si>
-    <t>custom_datetime_picker.handlebars</t>
   </si>
 </sst>
 </file>
@@ -578,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:F14"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -644,65 +638,6 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
         <v>27</v>
       </c>
     </row>

--- a/forms/tables/exampleTable/forms/exampleTable/exampleTable.xlsx
+++ b/forms/tables/exampleTable/forms/exampleTable/exampleTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\apps\cwbc\cwbc-odkx-app\forms\tables\exampleTable\forms\exampleTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7EC1B2-27AF-4B19-B78D-ED688BDC6940}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994EE08B-3BB7-41B1-8549-8A1F580D62F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7155" yWindow="2040" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>type</t>
   </si>
@@ -124,10 +124,19 @@
     <t>Templates Example Form</t>
   </si>
   <si>
-    <t>../../../templates/custom_date_picker.handlebars</t>
-  </si>
-  <si>
-    <t>../../../templates/custom_datetime_picker.handlebars</t>
+    <t>../../../../assets/templates/custom_date_picker.handlebars</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>reusable templates are automatically copied to asset folder</t>
+  </si>
+  <si>
+    <t>custom_datetime_picker.handlebars</t>
+  </si>
+  <si>
+    <t>templates in same folder can be directly imported</t>
   </si>
 </sst>
 </file>
@@ -572,15 +581,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="26" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -599,8 +611,11 @@
       <c r="F1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -608,7 +623,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -621,8 +636,11 @@
       <c r="F3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -633,10 +651,13 @@
         <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>27</v>
       </c>

--- a/forms/tables/exampleTable/forms/exampleTable/exampleTable.xlsx
+++ b/forms/tables/exampleTable/forms/exampleTable/exampleTable.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\apps\cwbc\cwbc-odkx-app\forms\tables\exampleTable\forms\exampleTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994EE08B-3BB7-41B1-8549-8A1F580D62F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87ABC7F-1AD0-4D57-9E48-3D334ECDC6A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7155" yWindow="2040" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6420" yWindow="3045" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="3" r:id="rId2"/>
-    <sheet name="settings" sheetId="4" r:id="rId3"/>
+    <sheet name="prompt_types" sheetId="5" r:id="rId3"/>
+    <sheet name="settings" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,15 +28,12 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="261">
   <si>
     <t>type</t>
   </si>
@@ -130,13 +128,694 @@
     <t>comment</t>
   </si>
   <si>
-    <t>reusable templates are automatically copied to asset folder</t>
-  </si>
-  <si>
-    <t>custom_datetime_picker.handlebars</t>
-  </si>
-  <si>
-    <t>templates in same folder can be directly imported</t>
+    <t>countries</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Antigua &amp; Deps</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Bosnia Herzegovina</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Brunei</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Burkina</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>Central African Rep</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>Congo {Democratic Rep}</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>East Timor</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Ireland {Republic}</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Ivory Coast</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>Korea North</t>
+  </si>
+  <si>
+    <t>Korea South</t>
+  </si>
+  <si>
+    <t>Kosovo</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Laos</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Micronesia</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Myanmar, {Burma}</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>St Kitts &amp; Nevis</t>
+  </si>
+  <si>
+    <t>St Lucia</t>
+  </si>
+  <si>
+    <t>Saint Vincent &amp; the Grenadines</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>Sao Tome &amp; Principe</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Syria</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Trinidad &amp; Tobago</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Vatican City</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>prompt_type_name</t>
+  </si>
+  <si>
+    <t>select_one</t>
+  </si>
+  <si>
+    <t>Use native datalist element to provide select dropdown with text search</t>
+  </si>
+  <si>
+    <t>country_1</t>
+  </si>
+  <si>
+    <t>Select from list (autocomplete datalist)</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>custom_warning</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>example_custom_prompt</t>
+  </si>
+  <si>
+    <t>af</t>
+  </si>
+  <si>
+    <t>ab</t>
+  </si>
+  <si>
+    <t>ag</t>
+  </si>
+  <si>
+    <t>Some simple styling on note element. Could be achieved with templatePath but using to demo custom prompt_type also</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>end if</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>data('country_1') &amp;&amp; data('country_1')!='Canada'</t>
+  </si>
+  <si>
+    <t>Example warning - the expected value is Canada but you specified {{data.country_1}}</t>
+  </si>
+  <si>
+    <t>Simple condition example to show warning example below</t>
+  </si>
+  <si>
+    <t>inputAttributes.min</t>
+  </si>
+  <si>
+    <t>inputAttributes.max</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>number_1</t>
+  </si>
+  <si>
+    <t>Number with validation to foce 1-5</t>
+  </si>
+  <si>
+    <t>number_2</t>
+  </si>
+  <si>
+    <t>custom_number</t>
+  </si>
+  <si>
+    <t>Custom prompt that accepts any number input (decimal/integer) and provides soft validation checks (warning only)</t>
+  </si>
+  <si>
+    <t>Select a number from 1-5 (invalid will display warning only)</t>
+  </si>
+  <si>
+    <t>../../../../assets/templates/custom_datetime_picker.handlebars</t>
+  </si>
+  <si>
+    <t>../../../../assets/templates/custom_select_autocomplete_datalist.handlebars</t>
+  </si>
+  <si>
+    <t>Picker to populate date using calendar widget and button to specify 'now'</t>
+  </si>
+  <si>
+    <t>Pcker to populate date and time using calendar widgets and button to specify 'now'</t>
+  </si>
+  <si>
+    <t>Select a number from 1-5 (invalid choice will flag error on next)</t>
   </si>
 </sst>
 </file>
@@ -148,12 +827,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -175,6 +848,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -193,19 +873,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -213,11 +891,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{31A2998F-1DC8-4CC1-B327-29AB0CA7C0D0}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -581,84 +1264,185 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="26" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I1" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>24</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+      <c r="H3" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>25</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>26</v>
       </c>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="G4" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="C5" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>231</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="F6" s="5"/>
+      <c r="H6" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="C7" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="F7" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="C9" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="C10" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>27</v>
       </c>
     </row>
@@ -675,10 +1459,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -722,56 +1506,2164 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="A10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B45" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" t="s">
+        <v>75</v>
+      </c>
+      <c r="C47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B50" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B51" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B52" t="s">
+        <v>80</v>
+      </c>
+      <c r="C52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B53" t="s">
+        <v>81</v>
+      </c>
+      <c r="C53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B54" t="s">
+        <v>82</v>
+      </c>
+      <c r="C54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B55" t="s">
+        <v>83</v>
+      </c>
+      <c r="C55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B56" t="s">
+        <v>84</v>
+      </c>
+      <c r="C56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B57" t="s">
+        <v>85</v>
+      </c>
+      <c r="C57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B58" t="s">
+        <v>86</v>
+      </c>
+      <c r="C58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B59" t="s">
+        <v>87</v>
+      </c>
+      <c r="C59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B60" t="s">
+        <v>88</v>
+      </c>
+      <c r="C60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B61" t="s">
+        <v>89</v>
+      </c>
+      <c r="C61" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B62" t="s">
+        <v>90</v>
+      </c>
+      <c r="C62" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B63" t="s">
+        <v>91</v>
+      </c>
+      <c r="C63" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B64" t="s">
+        <v>92</v>
+      </c>
+      <c r="C64" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B65" t="s">
+        <v>93</v>
+      </c>
+      <c r="C65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B66" t="s">
+        <v>94</v>
+      </c>
+      <c r="C66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B67" t="s">
+        <v>95</v>
+      </c>
+      <c r="C67" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B68" t="s">
+        <v>96</v>
+      </c>
+      <c r="C68" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B69" t="s">
+        <v>97</v>
+      </c>
+      <c r="C69" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B70" t="s">
+        <v>98</v>
+      </c>
+      <c r="C70" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B71" t="s">
+        <v>99</v>
+      </c>
+      <c r="C71" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B72" t="s">
+        <v>100</v>
+      </c>
+      <c r="C72" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B73" t="s">
+        <v>101</v>
+      </c>
+      <c r="C73" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B74" t="s">
+        <v>102</v>
+      </c>
+      <c r="C74" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B75" t="s">
+        <v>103</v>
+      </c>
+      <c r="C75" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B76" t="s">
+        <v>104</v>
+      </c>
+      <c r="C76" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B77" t="s">
+        <v>105</v>
+      </c>
+      <c r="C77" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B78" t="s">
+        <v>106</v>
+      </c>
+      <c r="C78" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B79" t="s">
+        <v>107</v>
+      </c>
+      <c r="C79" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B80" t="s">
+        <v>108</v>
+      </c>
+      <c r="C80" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B81" t="s">
+        <v>109</v>
+      </c>
+      <c r="C81" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B82" t="s">
+        <v>110</v>
+      </c>
+      <c r="C82" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B83" t="s">
+        <v>111</v>
+      </c>
+      <c r="C83" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B84" t="s">
+        <v>112</v>
+      </c>
+      <c r="C84" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B85" t="s">
+        <v>113</v>
+      </c>
+      <c r="C85" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B86" t="s">
+        <v>114</v>
+      </c>
+      <c r="C86" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B87" t="s">
+        <v>115</v>
+      </c>
+      <c r="C87" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B88" t="s">
+        <v>116</v>
+      </c>
+      <c r="C88" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B89" t="s">
+        <v>117</v>
+      </c>
+      <c r="C89" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B90" t="s">
+        <v>118</v>
+      </c>
+      <c r="C90" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B91" t="s">
+        <v>119</v>
+      </c>
+      <c r="C91" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B92" t="s">
+        <v>120</v>
+      </c>
+      <c r="C92" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B93" t="s">
+        <v>121</v>
+      </c>
+      <c r="C93" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B94" t="s">
+        <v>122</v>
+      </c>
+      <c r="C94" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B95" t="s">
+        <v>123</v>
+      </c>
+      <c r="C95" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B96" t="s">
+        <v>124</v>
+      </c>
+      <c r="C96" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B97" t="s">
+        <v>125</v>
+      </c>
+      <c r="C97" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B98" t="s">
+        <v>126</v>
+      </c>
+      <c r="C98" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B99" t="s">
+        <v>127</v>
+      </c>
+      <c r="C99" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B100" t="s">
+        <v>128</v>
+      </c>
+      <c r="C100" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B101" t="s">
+        <v>129</v>
+      </c>
+      <c r="C101" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B102" t="s">
+        <v>130</v>
+      </c>
+      <c r="C102" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B103" t="s">
+        <v>131</v>
+      </c>
+      <c r="C103" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B104" t="s">
+        <v>132</v>
+      </c>
+      <c r="C104" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B105" t="s">
+        <v>133</v>
+      </c>
+      <c r="C105" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B106" t="s">
+        <v>134</v>
+      </c>
+      <c r="C106" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B107" t="s">
+        <v>135</v>
+      </c>
+      <c r="C107" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B108" t="s">
+        <v>136</v>
+      </c>
+      <c r="C108" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B109" t="s">
+        <v>137</v>
+      </c>
+      <c r="C109" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B110" t="s">
+        <v>138</v>
+      </c>
+      <c r="C110" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B111" t="s">
+        <v>139</v>
+      </c>
+      <c r="C111" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B112" t="s">
+        <v>140</v>
+      </c>
+      <c r="C112" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B113" t="s">
+        <v>141</v>
+      </c>
+      <c r="C113" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B114" t="s">
+        <v>142</v>
+      </c>
+      <c r="C114" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B115" t="s">
+        <v>143</v>
+      </c>
+      <c r="C115" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B116" t="s">
+        <v>144</v>
+      </c>
+      <c r="C116" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B117" t="s">
+        <v>145</v>
+      </c>
+      <c r="C117" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B118" t="s">
+        <v>146</v>
+      </c>
+      <c r="C118" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B119" t="s">
+        <v>147</v>
+      </c>
+      <c r="C119" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B120" t="s">
+        <v>148</v>
+      </c>
+      <c r="C120" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B121" t="s">
+        <v>149</v>
+      </c>
+      <c r="C121" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B122" t="s">
+        <v>150</v>
+      </c>
+      <c r="C122" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B123" t="s">
+        <v>151</v>
+      </c>
+      <c r="C123" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B124" t="s">
+        <v>152</v>
+      </c>
+      <c r="C124" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B125" t="s">
+        <v>153</v>
+      </c>
+      <c r="C125" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B126" t="s">
+        <v>154</v>
+      </c>
+      <c r="C126" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B127" t="s">
+        <v>155</v>
+      </c>
+      <c r="C127" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B128" t="s">
+        <v>156</v>
+      </c>
+      <c r="C128" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B129" t="s">
+        <v>157</v>
+      </c>
+      <c r="C129" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B130" t="s">
+        <v>158</v>
+      </c>
+      <c r="C130" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B131" t="s">
+        <v>159</v>
+      </c>
+      <c r="C131" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B132" t="s">
+        <v>160</v>
+      </c>
+      <c r="C132" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B133" t="s">
+        <v>161</v>
+      </c>
+      <c r="C133" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B134" t="s">
+        <v>162</v>
+      </c>
+      <c r="C134" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B135" t="s">
+        <v>163</v>
+      </c>
+      <c r="C135" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B136" t="s">
+        <v>164</v>
+      </c>
+      <c r="C136" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B137" t="s">
+        <v>165</v>
+      </c>
+      <c r="C137" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B138" t="s">
+        <v>166</v>
+      </c>
+      <c r="C138" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B139" t="s">
+        <v>167</v>
+      </c>
+      <c r="C139" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B140" t="s">
+        <v>168</v>
+      </c>
+      <c r="C140" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B141" t="s">
+        <v>169</v>
+      </c>
+      <c r="C141" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B142" t="s">
+        <v>170</v>
+      </c>
+      <c r="C142" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B143" t="s">
+        <v>171</v>
+      </c>
+      <c r="C143" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B144" t="s">
+        <v>172</v>
+      </c>
+      <c r="C144" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B145" t="s">
+        <v>173</v>
+      </c>
+      <c r="C145" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B146" t="s">
+        <v>174</v>
+      </c>
+      <c r="C146" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B147" t="s">
+        <v>175</v>
+      </c>
+      <c r="C147" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B148" t="s">
+        <v>176</v>
+      </c>
+      <c r="C148" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B149" t="s">
+        <v>177</v>
+      </c>
+      <c r="C149" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B150" t="s">
+        <v>178</v>
+      </c>
+      <c r="C150" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B151" t="s">
+        <v>179</v>
+      </c>
+      <c r="C151" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B152" t="s">
+        <v>180</v>
+      </c>
+      <c r="C152" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B153" t="s">
+        <v>181</v>
+      </c>
+      <c r="C153" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B154" t="s">
+        <v>182</v>
+      </c>
+      <c r="C154" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B155" t="s">
+        <v>183</v>
+      </c>
+      <c r="C155" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B156" t="s">
+        <v>184</v>
+      </c>
+      <c r="C156" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B157" t="s">
+        <v>185</v>
+      </c>
+      <c r="C157" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B158" t="s">
+        <v>186</v>
+      </c>
+      <c r="C158" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B159" t="s">
+        <v>187</v>
+      </c>
+      <c r="C159" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B160" t="s">
+        <v>188</v>
+      </c>
+      <c r="C160" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B161" t="s">
+        <v>189</v>
+      </c>
+      <c r="C161" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B162" t="s">
+        <v>190</v>
+      </c>
+      <c r="C162" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B163" t="s">
+        <v>191</v>
+      </c>
+      <c r="C163" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B164" t="s">
+        <v>192</v>
+      </c>
+      <c r="C164" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B165" t="s">
+        <v>193</v>
+      </c>
+      <c r="C165" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B166" t="s">
+        <v>194</v>
+      </c>
+      <c r="C166" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B167" t="s">
+        <v>195</v>
+      </c>
+      <c r="C167" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B168" t="s">
+        <v>196</v>
+      </c>
+      <c r="C168" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B169" t="s">
+        <v>197</v>
+      </c>
+      <c r="C169" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B170" t="s">
+        <v>198</v>
+      </c>
+      <c r="C170" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B171" t="s">
+        <v>199</v>
+      </c>
+      <c r="C171" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B172" t="s">
+        <v>200</v>
+      </c>
+      <c r="C172" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B173" t="s">
+        <v>201</v>
+      </c>
+      <c r="C173" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B174" t="s">
+        <v>202</v>
+      </c>
+      <c r="C174" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B175" t="s">
+        <v>203</v>
+      </c>
+      <c r="C175" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B176" t="s">
+        <v>204</v>
+      </c>
+      <c r="C176" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B177" t="s">
+        <v>205</v>
+      </c>
+      <c r="C177" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B178" t="s">
+        <v>206</v>
+      </c>
+      <c r="C178" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B179" t="s">
+        <v>207</v>
+      </c>
+      <c r="C179" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B180" t="s">
+        <v>208</v>
+      </c>
+      <c r="C180" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B181" t="s">
+        <v>209</v>
+      </c>
+      <c r="C181" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B182" t="s">
+        <v>210</v>
+      </c>
+      <c r="C182" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B183" t="s">
+        <v>211</v>
+      </c>
+      <c r="C183" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B184" t="s">
+        <v>212</v>
+      </c>
+      <c r="C184" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B185" t="s">
+        <v>213</v>
+      </c>
+      <c r="C185" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B186" t="s">
+        <v>214</v>
+      </c>
+      <c r="C186" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B187" t="s">
+        <v>215</v>
+      </c>
+      <c r="C187" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B188" t="s">
+        <v>216</v>
+      </c>
+      <c r="C188" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B189" t="s">
+        <v>217</v>
+      </c>
+      <c r="C189" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B190" t="s">
+        <v>218</v>
+      </c>
+      <c r="C190" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B191" t="s">
+        <v>219</v>
+      </c>
+      <c r="C191" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B192" t="s">
+        <v>220</v>
+      </c>
+      <c r="C192" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B193" t="s">
+        <v>221</v>
+      </c>
+      <c r="C193" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B194" t="s">
+        <v>222</v>
+      </c>
+      <c r="C194" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B195" t="s">
+        <v>223</v>
+      </c>
+      <c r="C195" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B196" t="s">
+        <v>224</v>
+      </c>
+      <c r="C196" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B197" t="s">
+        <v>225</v>
+      </c>
+      <c r="C197" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B198" t="s">
+        <v>226</v>
+      </c>
+      <c r="C198" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B199" t="s">
+        <v>227</v>
+      </c>
+      <c r="C199" t="s">
+        <v>227</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -781,11 +3673,62 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{769F93AD-2A70-4DD2-A169-0433B4A27062}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -796,7 +3739,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -807,7 +3750,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -819,11 +3762,11 @@
         <v>5</v>
       </c>
       <c r="B3" s="1">
-        <v>20200307</v>
+        <v>20200308</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -831,7 +3774,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">

--- a/forms/tables/exampleTable/forms/exampleTable/exampleTable.xlsx
+++ b/forms/tables/exampleTable/forms/exampleTable/exampleTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\apps\cwbc\cwbc-odkx-app\forms\tables\exampleTable\forms\exampleTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87ABC7F-1AD0-4D57-9E48-3D334ECDC6A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8288B1C5-48A2-47F8-B9FD-A190EE7B883C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6420" yWindow="3045" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5505" yWindow="3300" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="256">
   <si>
     <t>type</t>
   </si>
@@ -722,18 +722,6 @@
     <t>prompt_type_name</t>
   </si>
   <si>
-    <t>select_one</t>
-  </si>
-  <si>
-    <t>Use native datalist element to provide select dropdown with text search</t>
-  </si>
-  <si>
-    <t>country_1</t>
-  </si>
-  <si>
-    <t>Select from list (autocomplete datalist)</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
@@ -804,9 +792,6 @@
   </si>
   <si>
     <t>../../../../assets/templates/custom_datetime_picker.handlebars</t>
-  </si>
-  <si>
-    <t>../../../../assets/templates/custom_select_autocomplete_datalist.handlebars</t>
   </si>
   <si>
     <t>Picker to populate date using calendar widget and button to specify 'now'</t>
@@ -1264,10 +1249,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1281,7 +1266,7 @@
         <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1302,10 +1287,10 @@
         <v>30</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -1331,7 +1316,7 @@
         <v>29</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -1345,74 +1330,74 @@
         <v>26</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="C5" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" t="s">
-        <v>231</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>257</v>
-      </c>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="F5" s="5"/>
       <c r="H5" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="C6" s="5" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="D6" s="1"/>
+      <c r="F6" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="B6" t="s">
-        <v>244</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="F6" s="5"/>
       <c r="H6" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="C8" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="C7" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="F7" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="F8" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="C9" s="5" t="s">
         <v>249</v>
       </c>
       <c r="E9" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>250</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>251</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -1421,28 +1406,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="C10" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1510,7 +1475,7 @@
         <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1521,7 +1486,7 @@
         <v>31</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -1532,7 +1497,7 @@
         <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>34</v>
@@ -3677,7 +3642,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3696,26 +3661,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>249</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/forms/tables/exampleTable/forms/exampleTable/exampleTable.xlsx
+++ b/forms/tables/exampleTable/forms/exampleTable/exampleTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\apps\cwbc\cwbc-odkx-app\forms\tables\exampleTable\forms\exampleTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8288B1C5-48A2-47F8-B9FD-A190EE7B883C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8066B653-CA85-4033-B4AC-E2C57A1BB954}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5505" yWindow="3300" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="261">
   <si>
     <t>type</t>
   </si>
@@ -722,6 +722,18 @@
     <t>prompt_type_name</t>
   </si>
   <si>
+    <t>select_one</t>
+  </si>
+  <si>
+    <t>Use native datalist element to provide select dropdown with text search</t>
+  </si>
+  <si>
+    <t>country_1</t>
+  </si>
+  <si>
+    <t>Select from list (autocomplete datalist)</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
@@ -792,6 +804,9 @@
   </si>
   <si>
     <t>../../../../assets/templates/custom_datetime_picker.handlebars</t>
+  </si>
+  <si>
+    <t>../../../../assets/templates/custom_select_autocomplete_datalist.handlebars</t>
   </si>
   <si>
     <t>Picker to populate date using calendar widget and button to specify 'now'</t>
@@ -1249,10 +1264,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1266,7 +1281,7 @@
         <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1287,10 +1302,10 @@
         <v>30</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -1316,7 +1331,7 @@
         <v>29</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -1330,74 +1345,74 @@
         <v>26</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>237</v>
-      </c>
-      <c r="B5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="C5" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>231</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="F6" s="5"/>
+      <c r="H6" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="C7" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="F7" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="F5" s="5"/>
-      <c r="H5" s="5" t="s">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="C6" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="F6" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="C8" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="C9" s="5" t="s">
         <v>249</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F9" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>251</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>250</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -1406,8 +1421,28 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="C10" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1475,7 +1510,7 @@
         <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1486,7 +1521,7 @@
         <v>31</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -1497,7 +1532,7 @@
         <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>34</v>
@@ -3661,26 +3696,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B3" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/forms/tables/exampleTable/forms/exampleTable/exampleTable.xlsx
+++ b/forms/tables/exampleTable/forms/exampleTable/exampleTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\apps\cwbc\cwbc-odkx-app\forms\tables\exampleTable\forms\exampleTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8066B653-CA85-4033-B4AC-E2C57A1BB954}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591EE5EA-E14A-4051-933F-C594A8BEDF1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5505" yWindow="3300" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18090" yWindow="2745" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="269">
   <si>
     <t>type</t>
   </si>
@@ -816,13 +816,37 @@
   </si>
   <si>
     <t>Select a number from 1-5 (invalid choice will flag error on next)</t>
+  </si>
+  <si>
+    <t>number_3</t>
+  </si>
+  <si>
+    <t>Same as above, but with additional button for don't know</t>
+  </si>
+  <si>
+    <t>inputAttributes.showIDK</t>
+  </si>
+  <si>
+    <t>custom_text</t>
+  </si>
+  <si>
+    <t>text_1</t>
+  </si>
+  <si>
+    <t>Input text, or don't know (-99)</t>
+  </si>
+  <si>
+    <t>Same as above for text input</t>
+  </si>
+  <si>
+    <t>Input a number, or don't know (-99)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -854,6 +878,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -894,7 +925,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1264,10 +1295,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1276,7 +1307,7 @@
     <col min="8" max="8" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -1307,8 +1338,11 @@
       <c r="J1" s="5" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -1317,9 +1351,9 @@
       <c r="D2" s="1"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="C3" s="5" t="s">
+        <v>264</v>
       </c>
       <c r="E3" t="s">
         <v>23</v>
@@ -1334,7 +1368,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -1351,7 +1385,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="C5" s="5" t="s">
         <v>229</v>
       </c>
@@ -1371,7 +1405,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>241</v>
       </c>
@@ -1384,7 +1418,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="C7" s="5" t="s">
         <v>234</v>
       </c>
@@ -1396,12 +1430,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="C9" s="5" t="s">
         <v>249</v>
       </c>
@@ -1421,7 +1455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="C10" s="5" t="s">
         <v>253</v>
       </c>
@@ -1441,8 +1475,42 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="C11" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C12" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3674,10 +3742,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{769F93AD-2A70-4DD2-A169-0433B4A27062}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3718,8 +3786,17 @@
         <v>253</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B5" t="s">
+        <v>264</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/forms/tables/exampleTable/forms/exampleTable/exampleTable.xlsx
+++ b/forms/tables/exampleTable/forms/exampleTable/exampleTable.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\apps\cwbc\cwbc-odkx-app\forms\tables\exampleTable\forms\exampleTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591EE5EA-E14A-4051-933F-C594A8BEDF1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CF390E-0CDC-41EC-ADE0-338686E31E70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18090" yWindow="2745" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9045" yWindow="3450" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
-    <sheet name="choices" sheetId="3" r:id="rId2"/>
-    <sheet name="prompt_types" sheetId="5" r:id="rId3"/>
-    <sheet name="settings" sheetId="4" r:id="rId4"/>
+    <sheet name="section1" sheetId="7" r:id="rId2"/>
+    <sheet name="section2" sheetId="8" r:id="rId3"/>
+    <sheet name="choices" sheetId="3" r:id="rId4"/>
+    <sheet name="prompt_types" sheetId="5" r:id="rId5"/>
+    <sheet name="settings" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="300">
   <si>
     <t>type</t>
   </si>
@@ -840,17 +842,117 @@
   </si>
   <si>
     <t>Input a number, or don't know (-99)</t>
+  </si>
+  <si>
+    <t>screen.screen_type</t>
+  </si>
+  <si>
+    <t>custom</t>
+  </si>
+  <si>
+    <t>screen.templatePath</t>
+  </si>
+  <si>
+    <t>../config/assets/templates/custom_test_screen.handlebars</t>
+  </si>
+  <si>
+    <t>The custom screen will also contain information about any questions in the section</t>
+  </si>
+  <si>
+    <t>branch_label</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>do section section1</t>
+  </si>
+  <si>
+    <t>do section section2</t>
+  </si>
+  <si>
+    <t>exit path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exiting survey </t>
+  </si>
+  <si>
+    <t>exit section</t>
+  </si>
+  <si>
+    <t>Start of section 1</t>
+  </si>
+  <si>
+    <t>End of section 1</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>form_sections</t>
+  </si>
+  <si>
+    <t>section1</t>
+  </si>
+  <si>
+    <t>section2</t>
+  </si>
+  <si>
+    <t>Start of section 2</t>
+  </si>
+  <si>
+    <t>End of section 2</t>
+  </si>
+  <si>
+    <t>contents_page</t>
+  </si>
+  <si>
+    <t>custom_contents_page</t>
+  </si>
+  <si>
+    <t>goto contents_page</t>
+  </si>
+  <si>
+    <t>Contents</t>
+  </si>
+  <si>
+    <t>section1_complete</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>custom_section_complete</t>
+  </si>
+  <si>
+    <t>Section 1</t>
+  </si>
+  <si>
+    <t>Section 2</t>
+  </si>
+  <si>
+    <t>Similar to user_branch type, displays a list of available sections, links, and additional completion taken from [branch_label]_complete variable in form</t>
+  </si>
+  <si>
+    <t>Presents a checkbox to mark section as complete. Name should match branch name for tracking on custom_contents_page</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -886,6 +988,45 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -904,17 +1045,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -922,16 +1066,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{31A2998F-1DC8-4CC1-B327-29AB0CA7C0D0}"/>
+    <cellStyle name="Normal 2 2" xfId="5" xr:uid="{EB36AB38-4CFE-4619-97A4-AFD7707F6D3F}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{6D72DD0D-681F-40FC-8A39-57E68FF50568}"/>
+    <cellStyle name="Normal 4" xfId="6" xr:uid="{28227AC3-7093-486E-AF1D-FFA419B468C6}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1295,10 +1476,3516 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:T964"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.5703125" style="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+    </row>
+    <row r="2" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+    </row>
+    <row r="3" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+    </row>
+    <row r="4" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+    </row>
+    <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+    </row>
+    <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="G6" s="24"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+    </row>
+    <row r="7" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+    </row>
+    <row r="8" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="G8" s="24"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+    </row>
+    <row r="9" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+    </row>
+    <row r="10" spans="1:20" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+    </row>
+    <row r="11" spans="1:20" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="G11" s="24"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+    </row>
+    <row r="12" spans="1:20" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+    </row>
+    <row r="13" spans="1:20" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="G13" s="24"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+    </row>
+    <row r="14" spans="1:20" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+    </row>
+    <row r="15" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+    </row>
+    <row r="16" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G16" s="24"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+    </row>
+    <row r="17" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+    </row>
+    <row r="18" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+    </row>
+    <row r="19" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+    </row>
+    <row r="20" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+    </row>
+    <row r="21" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+    </row>
+    <row r="22" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+    </row>
+    <row r="23" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+    </row>
+    <row r="24" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+    </row>
+    <row r="25" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+    </row>
+    <row r="26" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+    </row>
+    <row r="27" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+    </row>
+    <row r="28" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+    </row>
+    <row r="29" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+    </row>
+    <row r="30" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+    </row>
+    <row r="31" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+    </row>
+    <row r="32" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+    </row>
+    <row r="33" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+    </row>
+    <row r="34" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+    </row>
+    <row r="35" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+    </row>
+    <row r="36" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+    </row>
+    <row r="37" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+    </row>
+    <row r="38" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+    </row>
+    <row r="39" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+    </row>
+    <row r="40" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+    </row>
+    <row r="41" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+    </row>
+    <row r="42" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+    </row>
+    <row r="43" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+    </row>
+    <row r="44" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" s="7"/>
+    </row>
+    <row r="45" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A45" s="7"/>
+    </row>
+    <row r="46" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46" s="7"/>
+    </row>
+    <row r="47" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
+    </row>
+    <row r="48" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+    </row>
+    <row r="49" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A49" s="7"/>
+    </row>
+    <row r="50" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" s="7"/>
+    </row>
+    <row r="51" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" s="7"/>
+    </row>
+    <row r="52" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52" s="7"/>
+    </row>
+    <row r="53" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" s="7"/>
+    </row>
+    <row r="54" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="7"/>
+    </row>
+    <row r="55" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55" s="7"/>
+    </row>
+    <row r="56" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A56" s="7"/>
+    </row>
+    <row r="57" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A57" s="7"/>
+    </row>
+    <row r="58" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A58" s="7"/>
+    </row>
+    <row r="59" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A59" s="7"/>
+    </row>
+    <row r="60" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A60" s="7"/>
+    </row>
+    <row r="61" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A61" s="7"/>
+    </row>
+    <row r="62" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A62" s="7"/>
+    </row>
+    <row r="63" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A63" s="7"/>
+    </row>
+    <row r="64" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A64" s="7"/>
+    </row>
+    <row r="65" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A65" s="7"/>
+    </row>
+    <row r="66" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A66" s="7"/>
+    </row>
+    <row r="67" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A67" s="7"/>
+    </row>
+    <row r="68" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A68" s="7"/>
+    </row>
+    <row r="69" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A69" s="7"/>
+    </row>
+    <row r="70" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A70" s="7"/>
+    </row>
+    <row r="71" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A71" s="7"/>
+    </row>
+    <row r="72" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A72" s="7"/>
+    </row>
+    <row r="73" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A73" s="7"/>
+    </row>
+    <row r="74" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A74" s="7"/>
+    </row>
+    <row r="75" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A75" s="7"/>
+    </row>
+    <row r="76" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A76" s="7"/>
+    </row>
+    <row r="77" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A77" s="7"/>
+    </row>
+    <row r="78" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A78" s="7"/>
+    </row>
+    <row r="79" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A79" s="7"/>
+    </row>
+    <row r="80" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A80" s="7"/>
+    </row>
+    <row r="81" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A81" s="7"/>
+    </row>
+    <row r="82" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A82" s="7"/>
+    </row>
+    <row r="83" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A83" s="7"/>
+    </row>
+    <row r="84" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A84" s="7"/>
+    </row>
+    <row r="85" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A85" s="7"/>
+    </row>
+    <row r="86" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A86" s="7"/>
+    </row>
+    <row r="87" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A87" s="7"/>
+    </row>
+    <row r="88" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A88" s="7"/>
+    </row>
+    <row r="89" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A89" s="7"/>
+    </row>
+    <row r="90" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A90" s="7"/>
+    </row>
+    <row r="91" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A91" s="7"/>
+    </row>
+    <row r="92" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A92" s="7"/>
+    </row>
+    <row r="93" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A93" s="7"/>
+    </row>
+    <row r="94" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A94" s="7"/>
+    </row>
+    <row r="95" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A95" s="7"/>
+    </row>
+    <row r="96" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A96" s="7"/>
+    </row>
+    <row r="97" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A97" s="7"/>
+    </row>
+    <row r="98" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A98" s="7"/>
+    </row>
+    <row r="99" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A99" s="7"/>
+    </row>
+    <row r="100" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A100" s="7"/>
+    </row>
+    <row r="101" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A101" s="7"/>
+    </row>
+    <row r="102" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A102" s="7"/>
+    </row>
+    <row r="103" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A103" s="7"/>
+    </row>
+    <row r="104" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A104" s="7"/>
+    </row>
+    <row r="105" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A105" s="7"/>
+    </row>
+    <row r="106" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A106" s="7"/>
+    </row>
+    <row r="107" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A107" s="7"/>
+    </row>
+    <row r="108" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A108" s="7"/>
+    </row>
+    <row r="109" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A109" s="7"/>
+    </row>
+    <row r="110" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A110" s="7"/>
+    </row>
+    <row r="111" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A111" s="7"/>
+    </row>
+    <row r="112" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A112" s="7"/>
+    </row>
+    <row r="113" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A113" s="7"/>
+    </row>
+    <row r="114" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A114" s="7"/>
+    </row>
+    <row r="115" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A115" s="7"/>
+    </row>
+    <row r="116" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A116" s="7"/>
+    </row>
+    <row r="117" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A117" s="7"/>
+    </row>
+    <row r="118" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A118" s="7"/>
+    </row>
+    <row r="119" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A119" s="7"/>
+    </row>
+    <row r="120" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A120" s="7"/>
+    </row>
+    <row r="121" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A121" s="7"/>
+    </row>
+    <row r="122" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A122" s="7"/>
+    </row>
+    <row r="123" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A123" s="7"/>
+    </row>
+    <row r="124" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A124" s="7"/>
+    </row>
+    <row r="125" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A125" s="7"/>
+    </row>
+    <row r="126" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A126" s="7"/>
+    </row>
+    <row r="127" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A127" s="7"/>
+    </row>
+    <row r="128" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A128" s="7"/>
+    </row>
+    <row r="129" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A129" s="7"/>
+    </row>
+    <row r="130" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A130" s="7"/>
+    </row>
+    <row r="131" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A131" s="7"/>
+    </row>
+    <row r="132" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A132" s="7"/>
+    </row>
+    <row r="133" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A133" s="7"/>
+    </row>
+    <row r="134" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A134" s="7"/>
+    </row>
+    <row r="135" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A135" s="7"/>
+    </row>
+    <row r="136" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A136" s="7"/>
+    </row>
+    <row r="137" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A137" s="7"/>
+    </row>
+    <row r="138" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A138" s="7"/>
+    </row>
+    <row r="139" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A139" s="7"/>
+    </row>
+    <row r="140" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A140" s="7"/>
+    </row>
+    <row r="141" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A141" s="7"/>
+    </row>
+    <row r="142" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A142" s="7"/>
+    </row>
+    <row r="143" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A143" s="7"/>
+    </row>
+    <row r="144" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A144" s="7"/>
+    </row>
+    <row r="145" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A145" s="7"/>
+    </row>
+    <row r="146" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A146" s="7"/>
+    </row>
+    <row r="147" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A147" s="7"/>
+    </row>
+    <row r="148" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A148" s="7"/>
+    </row>
+    <row r="149" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A149" s="7"/>
+    </row>
+    <row r="150" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A150" s="7"/>
+    </row>
+    <row r="151" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A151" s="7"/>
+    </row>
+    <row r="152" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A152" s="7"/>
+    </row>
+    <row r="153" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A153" s="7"/>
+    </row>
+    <row r="154" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A154" s="7"/>
+    </row>
+    <row r="155" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A155" s="7"/>
+    </row>
+    <row r="156" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A156" s="7"/>
+    </row>
+    <row r="157" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A157" s="7"/>
+    </row>
+    <row r="158" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A158" s="7"/>
+    </row>
+    <row r="159" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A159" s="7"/>
+    </row>
+    <row r="160" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A160" s="7"/>
+    </row>
+    <row r="161" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A161" s="7"/>
+    </row>
+    <row r="162" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A162" s="7"/>
+    </row>
+    <row r="163" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A163" s="7"/>
+    </row>
+    <row r="164" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A164" s="7"/>
+    </row>
+    <row r="165" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A165" s="7"/>
+    </row>
+    <row r="166" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A166" s="7"/>
+    </row>
+    <row r="167" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A167" s="7"/>
+    </row>
+    <row r="168" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A168" s="7"/>
+    </row>
+    <row r="169" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A169" s="7"/>
+    </row>
+    <row r="170" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A170" s="7"/>
+    </row>
+    <row r="171" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A171" s="7"/>
+    </row>
+    <row r="172" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A172" s="7"/>
+    </row>
+    <row r="173" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A173" s="7"/>
+    </row>
+    <row r="174" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A174" s="7"/>
+    </row>
+    <row r="175" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A175" s="7"/>
+    </row>
+    <row r="176" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A176" s="7"/>
+    </row>
+    <row r="177" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A177" s="7"/>
+    </row>
+    <row r="178" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A178" s="7"/>
+    </row>
+    <row r="179" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A179" s="7"/>
+    </row>
+    <row r="180" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A180" s="7"/>
+    </row>
+    <row r="181" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A181" s="7"/>
+    </row>
+    <row r="182" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A182" s="7"/>
+    </row>
+    <row r="183" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A183" s="7"/>
+    </row>
+    <row r="184" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A184" s="7"/>
+    </row>
+    <row r="185" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A185" s="7"/>
+    </row>
+    <row r="186" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A186" s="7"/>
+    </row>
+    <row r="187" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A187" s="7"/>
+    </row>
+    <row r="188" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A188" s="7"/>
+    </row>
+    <row r="189" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A189" s="7"/>
+    </row>
+    <row r="190" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A190" s="7"/>
+    </row>
+    <row r="191" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A191" s="7"/>
+    </row>
+    <row r="192" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A192" s="7"/>
+    </row>
+    <row r="193" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A193" s="7"/>
+    </row>
+    <row r="194" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A194" s="7"/>
+    </row>
+    <row r="195" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A195" s="7"/>
+    </row>
+    <row r="196" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A196" s="7"/>
+    </row>
+    <row r="197" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A197" s="7"/>
+    </row>
+    <row r="198" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A198" s="7"/>
+    </row>
+    <row r="199" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A199" s="7"/>
+    </row>
+    <row r="200" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A200" s="7"/>
+    </row>
+    <row r="201" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A201" s="7"/>
+    </row>
+    <row r="202" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A202" s="7"/>
+    </row>
+    <row r="203" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A203" s="7"/>
+    </row>
+    <row r="204" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A204" s="7"/>
+    </row>
+    <row r="205" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A205" s="7"/>
+    </row>
+    <row r="206" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A206" s="7"/>
+    </row>
+    <row r="207" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A207" s="7"/>
+    </row>
+    <row r="208" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A208" s="7"/>
+    </row>
+    <row r="209" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A209" s="7"/>
+    </row>
+    <row r="210" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A210" s="7"/>
+    </row>
+    <row r="211" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A211" s="7"/>
+    </row>
+    <row r="212" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A212" s="7"/>
+    </row>
+    <row r="213" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A213" s="7"/>
+    </row>
+    <row r="214" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A214" s="7"/>
+    </row>
+    <row r="215" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A215" s="7"/>
+    </row>
+    <row r="216" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A216" s="7"/>
+    </row>
+    <row r="217" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A217" s="7"/>
+    </row>
+    <row r="218" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A218" s="7"/>
+    </row>
+    <row r="219" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A219" s="7"/>
+    </row>
+    <row r="220" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A220" s="7"/>
+    </row>
+    <row r="221" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A221" s="7"/>
+    </row>
+    <row r="222" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A222" s="7"/>
+    </row>
+    <row r="223" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A223" s="7"/>
+    </row>
+    <row r="224" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A224" s="7"/>
+    </row>
+    <row r="225" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A225" s="7"/>
+    </row>
+    <row r="226" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A226" s="7"/>
+    </row>
+    <row r="227" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A227" s="7"/>
+    </row>
+    <row r="228" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A228" s="7"/>
+    </row>
+    <row r="229" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A229" s="7"/>
+    </row>
+    <row r="230" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A230" s="7"/>
+    </row>
+    <row r="231" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A231" s="7"/>
+    </row>
+    <row r="232" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A232" s="7"/>
+    </row>
+    <row r="233" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A233" s="7"/>
+    </row>
+    <row r="234" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A234" s="7"/>
+    </row>
+    <row r="235" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A235" s="7"/>
+    </row>
+    <row r="236" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A236" s="7"/>
+    </row>
+    <row r="237" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A237" s="7"/>
+    </row>
+    <row r="238" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A238" s="7"/>
+    </row>
+    <row r="239" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A239" s="7"/>
+    </row>
+    <row r="240" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A240" s="7"/>
+    </row>
+    <row r="241" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A241" s="7"/>
+    </row>
+    <row r="242" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A242" s="7"/>
+    </row>
+    <row r="243" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A243" s="7"/>
+    </row>
+    <row r="244" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A244" s="7"/>
+    </row>
+    <row r="245" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A245" s="7"/>
+    </row>
+    <row r="246" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A246" s="7"/>
+    </row>
+    <row r="247" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A247" s="7"/>
+    </row>
+    <row r="248" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A248" s="7"/>
+    </row>
+    <row r="249" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A249" s="7"/>
+    </row>
+    <row r="250" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A250" s="7"/>
+    </row>
+    <row r="251" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A251" s="7"/>
+    </row>
+    <row r="252" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A252" s="7"/>
+    </row>
+    <row r="253" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A253" s="7"/>
+    </row>
+    <row r="254" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A254" s="7"/>
+    </row>
+    <row r="255" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A255" s="7"/>
+    </row>
+    <row r="256" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A256" s="7"/>
+    </row>
+    <row r="257" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A257" s="7"/>
+    </row>
+    <row r="258" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A258" s="7"/>
+    </row>
+    <row r="259" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A259" s="7"/>
+    </row>
+    <row r="260" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A260" s="7"/>
+    </row>
+    <row r="261" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A261" s="7"/>
+    </row>
+    <row r="262" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A262" s="7"/>
+    </row>
+    <row r="263" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A263" s="7"/>
+    </row>
+    <row r="264" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A264" s="7"/>
+    </row>
+    <row r="265" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A265" s="7"/>
+    </row>
+    <row r="266" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A266" s="7"/>
+    </row>
+    <row r="267" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A267" s="7"/>
+    </row>
+    <row r="268" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A268" s="7"/>
+    </row>
+    <row r="269" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A269" s="7"/>
+    </row>
+    <row r="270" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A270" s="7"/>
+    </row>
+    <row r="271" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A271" s="7"/>
+    </row>
+    <row r="272" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A272" s="7"/>
+    </row>
+    <row r="273" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A273" s="7"/>
+    </row>
+    <row r="274" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A274" s="7"/>
+    </row>
+    <row r="275" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A275" s="7"/>
+    </row>
+    <row r="276" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A276" s="7"/>
+    </row>
+    <row r="277" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A277" s="7"/>
+    </row>
+    <row r="278" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A278" s="7"/>
+    </row>
+    <row r="279" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A279" s="7"/>
+    </row>
+    <row r="280" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A280" s="7"/>
+    </row>
+    <row r="281" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A281" s="7"/>
+    </row>
+    <row r="282" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A282" s="7"/>
+    </row>
+    <row r="283" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A283" s="7"/>
+    </row>
+    <row r="284" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A284" s="7"/>
+    </row>
+    <row r="285" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A285" s="7"/>
+    </row>
+    <row r="286" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A286" s="7"/>
+    </row>
+    <row r="287" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A287" s="7"/>
+    </row>
+    <row r="288" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A288" s="7"/>
+    </row>
+    <row r="289" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A289" s="7"/>
+    </row>
+    <row r="290" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A290" s="7"/>
+    </row>
+    <row r="291" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A291" s="7"/>
+    </row>
+    <row r="292" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A292" s="7"/>
+    </row>
+    <row r="293" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A293" s="7"/>
+    </row>
+    <row r="294" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A294" s="7"/>
+    </row>
+    <row r="295" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A295" s="7"/>
+    </row>
+    <row r="296" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A296" s="7"/>
+    </row>
+    <row r="297" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A297" s="7"/>
+    </row>
+    <row r="298" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A298" s="7"/>
+    </row>
+    <row r="299" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A299" s="7"/>
+    </row>
+    <row r="300" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A300" s="7"/>
+    </row>
+    <row r="301" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A301" s="7"/>
+    </row>
+    <row r="302" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A302" s="7"/>
+    </row>
+    <row r="303" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A303" s="7"/>
+    </row>
+    <row r="304" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A304" s="7"/>
+    </row>
+    <row r="305" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A305" s="7"/>
+    </row>
+    <row r="306" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A306" s="7"/>
+    </row>
+    <row r="307" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A307" s="7"/>
+    </row>
+    <row r="308" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A308" s="7"/>
+    </row>
+    <row r="309" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A309" s="7"/>
+    </row>
+    <row r="310" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A310" s="7"/>
+    </row>
+    <row r="311" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A311" s="7"/>
+    </row>
+    <row r="312" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A312" s="7"/>
+    </row>
+    <row r="313" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A313" s="7"/>
+    </row>
+    <row r="314" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A314" s="7"/>
+    </row>
+    <row r="315" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A315" s="7"/>
+    </row>
+    <row r="316" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A316" s="7"/>
+    </row>
+    <row r="317" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A317" s="7"/>
+    </row>
+    <row r="318" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A318" s="7"/>
+    </row>
+    <row r="319" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A319" s="7"/>
+    </row>
+    <row r="320" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A320" s="7"/>
+    </row>
+    <row r="321" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A321" s="7"/>
+    </row>
+    <row r="322" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A322" s="7"/>
+    </row>
+    <row r="323" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A323" s="7"/>
+    </row>
+    <row r="324" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A324" s="7"/>
+    </row>
+    <row r="325" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A325" s="7"/>
+    </row>
+    <row r="326" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A326" s="7"/>
+    </row>
+    <row r="327" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A327" s="7"/>
+    </row>
+    <row r="328" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A328" s="7"/>
+    </row>
+    <row r="329" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A329" s="7"/>
+    </row>
+    <row r="330" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A330" s="7"/>
+    </row>
+    <row r="331" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A331" s="7"/>
+    </row>
+    <row r="332" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A332" s="7"/>
+    </row>
+    <row r="333" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A333" s="7"/>
+    </row>
+    <row r="334" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A334" s="7"/>
+    </row>
+    <row r="335" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A335" s="7"/>
+    </row>
+    <row r="336" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A336" s="7"/>
+    </row>
+    <row r="337" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A337" s="7"/>
+    </row>
+    <row r="338" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A338" s="7"/>
+    </row>
+    <row r="339" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A339" s="7"/>
+    </row>
+    <row r="340" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A340" s="7"/>
+    </row>
+    <row r="341" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A341" s="7"/>
+    </row>
+    <row r="342" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A342" s="7"/>
+    </row>
+    <row r="343" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A343" s="7"/>
+    </row>
+    <row r="344" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A344" s="7"/>
+    </row>
+    <row r="345" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A345" s="7"/>
+    </row>
+    <row r="346" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A346" s="7"/>
+    </row>
+    <row r="347" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A347" s="7"/>
+    </row>
+    <row r="348" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A348" s="7"/>
+    </row>
+    <row r="349" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A349" s="7"/>
+    </row>
+    <row r="350" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A350" s="7"/>
+    </row>
+    <row r="351" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A351" s="7"/>
+    </row>
+    <row r="352" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A352" s="7"/>
+    </row>
+    <row r="353" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A353" s="7"/>
+    </row>
+    <row r="354" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A354" s="7"/>
+    </row>
+    <row r="355" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A355" s="7"/>
+    </row>
+    <row r="356" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A356" s="7"/>
+    </row>
+    <row r="357" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A357" s="7"/>
+    </row>
+    <row r="358" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A358" s="7"/>
+    </row>
+    <row r="359" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A359" s="7"/>
+    </row>
+    <row r="360" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A360" s="7"/>
+    </row>
+    <row r="361" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A361" s="7"/>
+    </row>
+    <row r="362" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A362" s="7"/>
+    </row>
+    <row r="363" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A363" s="7"/>
+    </row>
+    <row r="364" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A364" s="7"/>
+    </row>
+    <row r="365" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A365" s="7"/>
+    </row>
+    <row r="366" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A366" s="7"/>
+    </row>
+    <row r="367" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A367" s="7"/>
+    </row>
+    <row r="368" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A368" s="7"/>
+    </row>
+    <row r="369" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A369" s="7"/>
+    </row>
+    <row r="370" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A370" s="7"/>
+    </row>
+    <row r="371" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A371" s="7"/>
+    </row>
+    <row r="372" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A372" s="7"/>
+    </row>
+    <row r="373" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A373" s="7"/>
+    </row>
+    <row r="374" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A374" s="7"/>
+    </row>
+    <row r="375" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A375" s="7"/>
+    </row>
+    <row r="376" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A376" s="7"/>
+    </row>
+    <row r="377" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A377" s="7"/>
+    </row>
+    <row r="378" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A378" s="7"/>
+    </row>
+    <row r="379" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A379" s="7"/>
+    </row>
+    <row r="380" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A380" s="7"/>
+    </row>
+    <row r="381" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A381" s="7"/>
+    </row>
+    <row r="382" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A382" s="7"/>
+    </row>
+    <row r="383" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A383" s="7"/>
+    </row>
+    <row r="384" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A384" s="7"/>
+    </row>
+    <row r="385" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A385" s="7"/>
+    </row>
+    <row r="386" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A386" s="7"/>
+    </row>
+    <row r="387" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A387" s="7"/>
+    </row>
+    <row r="388" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A388" s="7"/>
+    </row>
+    <row r="389" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A389" s="7"/>
+    </row>
+    <row r="390" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A390" s="7"/>
+    </row>
+    <row r="391" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A391" s="7"/>
+    </row>
+    <row r="392" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A392" s="7"/>
+    </row>
+    <row r="393" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A393" s="7"/>
+    </row>
+    <row r="394" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A394" s="7"/>
+    </row>
+    <row r="395" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A395" s="7"/>
+    </row>
+    <row r="396" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A396" s="7"/>
+    </row>
+    <row r="397" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A397" s="7"/>
+    </row>
+    <row r="398" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A398" s="7"/>
+    </row>
+    <row r="399" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A399" s="7"/>
+    </row>
+    <row r="400" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A400" s="7"/>
+    </row>
+    <row r="401" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A401" s="7"/>
+    </row>
+    <row r="402" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A402" s="7"/>
+    </row>
+    <row r="403" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A403" s="7"/>
+    </row>
+    <row r="404" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A404" s="7"/>
+    </row>
+    <row r="405" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A405" s="7"/>
+    </row>
+    <row r="406" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A406" s="7"/>
+    </row>
+    <row r="407" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A407" s="7"/>
+    </row>
+    <row r="408" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A408" s="7"/>
+    </row>
+    <row r="409" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A409" s="7"/>
+    </row>
+    <row r="410" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A410" s="7"/>
+    </row>
+    <row r="411" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A411" s="7"/>
+    </row>
+    <row r="412" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A412" s="7"/>
+    </row>
+    <row r="413" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A413" s="7"/>
+    </row>
+    <row r="414" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A414" s="7"/>
+    </row>
+    <row r="415" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A415" s="7"/>
+    </row>
+    <row r="416" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A416" s="7"/>
+    </row>
+    <row r="417" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A417" s="7"/>
+    </row>
+    <row r="418" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A418" s="7"/>
+    </row>
+    <row r="419" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A419" s="7"/>
+    </row>
+    <row r="420" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A420" s="7"/>
+    </row>
+    <row r="421" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A421" s="7"/>
+    </row>
+    <row r="422" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A422" s="7"/>
+    </row>
+    <row r="423" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A423" s="7"/>
+    </row>
+    <row r="424" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A424" s="7"/>
+    </row>
+    <row r="425" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A425" s="7"/>
+    </row>
+    <row r="426" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A426" s="7"/>
+    </row>
+    <row r="427" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A427" s="7"/>
+    </row>
+    <row r="428" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A428" s="7"/>
+    </row>
+    <row r="429" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A429" s="7"/>
+    </row>
+    <row r="430" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A430" s="7"/>
+    </row>
+    <row r="431" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A431" s="7"/>
+    </row>
+    <row r="432" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A432" s="7"/>
+    </row>
+    <row r="433" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A433" s="7"/>
+    </row>
+    <row r="434" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A434" s="7"/>
+    </row>
+    <row r="435" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A435" s="7"/>
+    </row>
+    <row r="436" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A436" s="7"/>
+    </row>
+    <row r="437" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A437" s="7"/>
+    </row>
+    <row r="438" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A438" s="7"/>
+    </row>
+    <row r="439" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A439" s="7"/>
+    </row>
+    <row r="440" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A440" s="7"/>
+    </row>
+    <row r="441" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A441" s="7"/>
+    </row>
+    <row r="442" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A442" s="7"/>
+    </row>
+    <row r="443" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A443" s="7"/>
+    </row>
+    <row r="444" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A444" s="7"/>
+    </row>
+    <row r="445" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A445" s="7"/>
+    </row>
+    <row r="446" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A446" s="7"/>
+    </row>
+    <row r="447" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A447" s="7"/>
+    </row>
+    <row r="448" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A448" s="7"/>
+    </row>
+    <row r="449" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A449" s="7"/>
+    </row>
+    <row r="450" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A450" s="7"/>
+    </row>
+    <row r="451" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A451" s="7"/>
+    </row>
+    <row r="452" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A452" s="7"/>
+    </row>
+    <row r="453" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A453" s="7"/>
+    </row>
+    <row r="454" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A454" s="7"/>
+    </row>
+    <row r="455" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A455" s="7"/>
+    </row>
+    <row r="456" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A456" s="7"/>
+    </row>
+    <row r="457" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A457" s="7"/>
+    </row>
+    <row r="458" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A458" s="7"/>
+    </row>
+    <row r="459" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A459" s="7"/>
+    </row>
+    <row r="460" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A460" s="7"/>
+    </row>
+    <row r="461" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A461" s="7"/>
+    </row>
+    <row r="462" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A462" s="7"/>
+    </row>
+    <row r="463" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A463" s="7"/>
+    </row>
+    <row r="464" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A464" s="7"/>
+    </row>
+    <row r="465" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A465" s="7"/>
+    </row>
+    <row r="466" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A466" s="7"/>
+    </row>
+    <row r="467" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A467" s="7"/>
+    </row>
+    <row r="468" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A468" s="7"/>
+    </row>
+    <row r="469" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A469" s="7"/>
+    </row>
+    <row r="470" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A470" s="7"/>
+    </row>
+    <row r="471" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A471" s="7"/>
+    </row>
+    <row r="472" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A472" s="7"/>
+    </row>
+    <row r="473" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A473" s="7"/>
+    </row>
+    <row r="474" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A474" s="7"/>
+    </row>
+    <row r="475" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A475" s="7"/>
+    </row>
+    <row r="476" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A476" s="7"/>
+    </row>
+    <row r="477" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A477" s="7"/>
+    </row>
+    <row r="478" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A478" s="7"/>
+    </row>
+    <row r="479" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A479" s="7"/>
+    </row>
+    <row r="480" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A480" s="7"/>
+    </row>
+    <row r="481" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A481" s="7"/>
+    </row>
+    <row r="482" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A482" s="7"/>
+    </row>
+    <row r="483" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A483" s="7"/>
+    </row>
+    <row r="484" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A484" s="7"/>
+    </row>
+    <row r="485" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A485" s="7"/>
+    </row>
+    <row r="486" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A486" s="7"/>
+    </row>
+    <row r="487" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A487" s="7"/>
+    </row>
+    <row r="488" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A488" s="7"/>
+    </row>
+    <row r="489" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A489" s="7"/>
+    </row>
+    <row r="490" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A490" s="7"/>
+    </row>
+    <row r="491" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A491" s="7"/>
+    </row>
+    <row r="492" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A492" s="7"/>
+    </row>
+    <row r="493" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A493" s="7"/>
+    </row>
+    <row r="494" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A494" s="7"/>
+    </row>
+    <row r="495" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A495" s="7"/>
+    </row>
+    <row r="496" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A496" s="7"/>
+    </row>
+    <row r="497" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A497" s="7"/>
+    </row>
+    <row r="498" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A498" s="7"/>
+    </row>
+    <row r="499" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A499" s="7"/>
+    </row>
+    <row r="500" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A500" s="7"/>
+    </row>
+    <row r="501" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A501" s="7"/>
+    </row>
+    <row r="502" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A502" s="7"/>
+    </row>
+    <row r="503" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A503" s="7"/>
+    </row>
+    <row r="504" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A504" s="7"/>
+    </row>
+    <row r="505" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A505" s="7"/>
+    </row>
+    <row r="506" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A506" s="7"/>
+    </row>
+    <row r="507" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A507" s="7"/>
+    </row>
+    <row r="508" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A508" s="7"/>
+    </row>
+    <row r="509" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A509" s="7"/>
+    </row>
+    <row r="510" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A510" s="7"/>
+    </row>
+    <row r="511" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A511" s="7"/>
+    </row>
+    <row r="512" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A512" s="7"/>
+    </row>
+    <row r="513" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A513" s="7"/>
+    </row>
+    <row r="514" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A514" s="7"/>
+    </row>
+    <row r="515" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A515" s="7"/>
+    </row>
+    <row r="516" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A516" s="7"/>
+    </row>
+    <row r="517" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A517" s="7"/>
+    </row>
+    <row r="518" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A518" s="7"/>
+    </row>
+    <row r="519" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A519" s="7"/>
+    </row>
+    <row r="520" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A520" s="7"/>
+    </row>
+    <row r="521" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A521" s="7"/>
+    </row>
+    <row r="522" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A522" s="7"/>
+    </row>
+    <row r="523" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A523" s="7"/>
+    </row>
+    <row r="524" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A524" s="7"/>
+    </row>
+    <row r="525" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A525" s="7"/>
+    </row>
+    <row r="526" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A526" s="7"/>
+    </row>
+    <row r="527" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A527" s="7"/>
+    </row>
+    <row r="528" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A528" s="7"/>
+    </row>
+    <row r="529" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A529" s="7"/>
+    </row>
+    <row r="530" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A530" s="7"/>
+    </row>
+    <row r="531" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A531" s="7"/>
+    </row>
+    <row r="532" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A532" s="7"/>
+    </row>
+    <row r="533" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A533" s="7"/>
+    </row>
+    <row r="534" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A534" s="7"/>
+    </row>
+    <row r="535" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A535" s="7"/>
+    </row>
+    <row r="536" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A536" s="7"/>
+    </row>
+    <row r="537" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A537" s="7"/>
+    </row>
+    <row r="538" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A538" s="7"/>
+    </row>
+    <row r="539" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A539" s="7"/>
+    </row>
+    <row r="540" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A540" s="7"/>
+    </row>
+    <row r="541" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A541" s="7"/>
+    </row>
+    <row r="542" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A542" s="7"/>
+    </row>
+    <row r="543" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A543" s="7"/>
+    </row>
+    <row r="544" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A544" s="7"/>
+    </row>
+    <row r="545" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A545" s="7"/>
+    </row>
+    <row r="546" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A546" s="7"/>
+    </row>
+    <row r="547" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A547" s="7"/>
+    </row>
+    <row r="548" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A548" s="7"/>
+    </row>
+    <row r="549" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A549" s="7"/>
+    </row>
+    <row r="550" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A550" s="7"/>
+    </row>
+    <row r="551" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A551" s="7"/>
+    </row>
+    <row r="552" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A552" s="7"/>
+    </row>
+    <row r="553" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A553" s="7"/>
+    </row>
+    <row r="554" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A554" s="7"/>
+    </row>
+    <row r="555" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A555" s="7"/>
+    </row>
+    <row r="556" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A556" s="7"/>
+    </row>
+    <row r="557" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A557" s="7"/>
+    </row>
+    <row r="558" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A558" s="7"/>
+    </row>
+    <row r="559" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A559" s="7"/>
+    </row>
+    <row r="560" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A560" s="7"/>
+    </row>
+    <row r="561" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A561" s="7"/>
+    </row>
+    <row r="562" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A562" s="7"/>
+    </row>
+    <row r="563" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A563" s="7"/>
+    </row>
+    <row r="564" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A564" s="7"/>
+    </row>
+    <row r="565" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A565" s="7"/>
+    </row>
+    <row r="566" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A566" s="7"/>
+    </row>
+    <row r="567" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A567" s="7"/>
+    </row>
+    <row r="568" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A568" s="7"/>
+    </row>
+    <row r="569" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A569" s="7"/>
+    </row>
+    <row r="570" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A570" s="7"/>
+    </row>
+    <row r="571" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A571" s="7"/>
+    </row>
+    <row r="572" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A572" s="7"/>
+    </row>
+    <row r="573" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A573" s="7"/>
+    </row>
+    <row r="574" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A574" s="7"/>
+    </row>
+    <row r="575" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A575" s="7"/>
+    </row>
+    <row r="576" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A576" s="7"/>
+    </row>
+    <row r="577" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A577" s="7"/>
+    </row>
+    <row r="578" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A578" s="7"/>
+    </row>
+    <row r="579" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A579" s="7"/>
+    </row>
+    <row r="580" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A580" s="7"/>
+    </row>
+    <row r="581" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A581" s="7"/>
+    </row>
+    <row r="582" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A582" s="7"/>
+    </row>
+    <row r="583" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A583" s="7"/>
+    </row>
+    <row r="584" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A584" s="7"/>
+    </row>
+    <row r="585" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A585" s="7"/>
+    </row>
+    <row r="586" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A586" s="7"/>
+    </row>
+    <row r="587" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A587" s="7"/>
+    </row>
+    <row r="588" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A588" s="7"/>
+    </row>
+    <row r="589" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A589" s="7"/>
+    </row>
+    <row r="590" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A590" s="7"/>
+    </row>
+    <row r="591" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A591" s="7"/>
+    </row>
+    <row r="592" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A592" s="7"/>
+    </row>
+    <row r="593" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A593" s="7"/>
+    </row>
+    <row r="594" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A594" s="7"/>
+    </row>
+    <row r="595" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A595" s="7"/>
+    </row>
+    <row r="596" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A596" s="7"/>
+    </row>
+    <row r="597" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A597" s="7"/>
+    </row>
+    <row r="598" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A598" s="7"/>
+    </row>
+    <row r="599" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A599" s="7"/>
+    </row>
+    <row r="600" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A600" s="7"/>
+    </row>
+    <row r="601" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A601" s="7"/>
+    </row>
+    <row r="602" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A602" s="7"/>
+    </row>
+    <row r="603" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A603" s="7"/>
+    </row>
+    <row r="604" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A604" s="7"/>
+    </row>
+    <row r="605" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A605" s="7"/>
+    </row>
+    <row r="606" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A606" s="7"/>
+    </row>
+    <row r="607" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A607" s="7"/>
+    </row>
+    <row r="608" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A608" s="7"/>
+    </row>
+    <row r="609" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A609" s="7"/>
+    </row>
+    <row r="610" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A610" s="7"/>
+    </row>
+    <row r="611" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A611" s="7"/>
+    </row>
+    <row r="612" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A612" s="7"/>
+    </row>
+    <row r="613" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A613" s="7"/>
+    </row>
+    <row r="614" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A614" s="7"/>
+    </row>
+    <row r="615" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A615" s="7"/>
+    </row>
+    <row r="616" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A616" s="7"/>
+    </row>
+    <row r="617" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A617" s="7"/>
+    </row>
+    <row r="618" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A618" s="7"/>
+    </row>
+    <row r="619" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A619" s="7"/>
+    </row>
+    <row r="620" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A620" s="7"/>
+    </row>
+    <row r="621" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A621" s="7"/>
+    </row>
+    <row r="622" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A622" s="7"/>
+    </row>
+    <row r="623" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A623" s="7"/>
+    </row>
+    <row r="624" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A624" s="7"/>
+    </row>
+    <row r="625" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A625" s="7"/>
+    </row>
+    <row r="626" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A626" s="7"/>
+    </row>
+    <row r="627" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A627" s="7"/>
+    </row>
+    <row r="628" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A628" s="7"/>
+    </row>
+    <row r="629" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A629" s="7"/>
+    </row>
+    <row r="630" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A630" s="7"/>
+    </row>
+    <row r="631" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A631" s="7"/>
+    </row>
+    <row r="632" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A632" s="7"/>
+    </row>
+    <row r="633" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A633" s="7"/>
+    </row>
+    <row r="634" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A634" s="7"/>
+    </row>
+    <row r="635" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A635" s="7"/>
+    </row>
+    <row r="636" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A636" s="7"/>
+    </row>
+    <row r="637" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A637" s="7"/>
+    </row>
+    <row r="638" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A638" s="7"/>
+    </row>
+    <row r="639" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A639" s="7"/>
+    </row>
+    <row r="640" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A640" s="7"/>
+    </row>
+    <row r="641" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A641" s="7"/>
+    </row>
+    <row r="642" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A642" s="7"/>
+    </row>
+    <row r="643" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A643" s="7"/>
+    </row>
+    <row r="644" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A644" s="7"/>
+    </row>
+    <row r="645" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A645" s="7"/>
+    </row>
+    <row r="646" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A646" s="7"/>
+    </row>
+    <row r="647" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A647" s="7"/>
+    </row>
+    <row r="648" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A648" s="7"/>
+    </row>
+    <row r="649" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A649" s="7"/>
+    </row>
+    <row r="650" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A650" s="7"/>
+    </row>
+    <row r="651" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A651" s="7"/>
+    </row>
+    <row r="652" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A652" s="7"/>
+    </row>
+    <row r="653" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A653" s="7"/>
+    </row>
+    <row r="654" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A654" s="7"/>
+    </row>
+    <row r="655" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A655" s="7"/>
+    </row>
+    <row r="656" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A656" s="7"/>
+    </row>
+    <row r="657" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A657" s="7"/>
+    </row>
+    <row r="658" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A658" s="7"/>
+    </row>
+    <row r="659" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A659" s="7"/>
+    </row>
+    <row r="660" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A660" s="7"/>
+    </row>
+    <row r="661" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A661" s="7"/>
+    </row>
+    <row r="662" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A662" s="7"/>
+    </row>
+    <row r="663" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A663" s="7"/>
+    </row>
+    <row r="664" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A664" s="7"/>
+    </row>
+    <row r="665" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A665" s="7"/>
+    </row>
+    <row r="666" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A666" s="7"/>
+    </row>
+    <row r="667" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A667" s="7"/>
+    </row>
+    <row r="668" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A668" s="7"/>
+    </row>
+    <row r="669" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A669" s="7"/>
+    </row>
+    <row r="670" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A670" s="7"/>
+    </row>
+    <row r="671" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A671" s="7"/>
+    </row>
+    <row r="672" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A672" s="7"/>
+    </row>
+    <row r="673" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A673" s="7"/>
+    </row>
+    <row r="674" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A674" s="7"/>
+    </row>
+    <row r="675" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A675" s="7"/>
+    </row>
+    <row r="676" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A676" s="7"/>
+    </row>
+    <row r="677" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A677" s="7"/>
+    </row>
+    <row r="678" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A678" s="7"/>
+    </row>
+    <row r="679" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A679" s="7"/>
+    </row>
+    <row r="680" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A680" s="7"/>
+    </row>
+    <row r="681" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A681" s="7"/>
+    </row>
+    <row r="682" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A682" s="7"/>
+    </row>
+    <row r="683" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A683" s="7"/>
+    </row>
+    <row r="684" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A684" s="7"/>
+    </row>
+    <row r="685" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A685" s="7"/>
+    </row>
+    <row r="686" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A686" s="7"/>
+    </row>
+    <row r="687" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A687" s="7"/>
+    </row>
+    <row r="688" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A688" s="7"/>
+    </row>
+    <row r="689" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A689" s="7"/>
+    </row>
+    <row r="690" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A690" s="7"/>
+    </row>
+    <row r="691" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A691" s="7"/>
+    </row>
+    <row r="692" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A692" s="7"/>
+    </row>
+    <row r="693" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A693" s="7"/>
+    </row>
+    <row r="694" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A694" s="7"/>
+    </row>
+    <row r="695" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A695" s="7"/>
+    </row>
+    <row r="696" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A696" s="7"/>
+    </row>
+    <row r="697" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A697" s="7"/>
+    </row>
+    <row r="698" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A698" s="7"/>
+    </row>
+    <row r="699" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A699" s="7"/>
+    </row>
+    <row r="700" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A700" s="7"/>
+    </row>
+    <row r="701" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A701" s="7"/>
+    </row>
+    <row r="702" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A702" s="7"/>
+    </row>
+    <row r="703" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A703" s="7"/>
+    </row>
+    <row r="704" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A704" s="7"/>
+    </row>
+    <row r="705" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A705" s="7"/>
+    </row>
+    <row r="706" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A706" s="7"/>
+    </row>
+    <row r="707" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A707" s="7"/>
+    </row>
+    <row r="708" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A708" s="7"/>
+    </row>
+    <row r="709" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A709" s="7"/>
+    </row>
+    <row r="710" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A710" s="7"/>
+    </row>
+    <row r="711" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A711" s="7"/>
+    </row>
+    <row r="712" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A712" s="7"/>
+    </row>
+    <row r="713" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A713" s="7"/>
+    </row>
+    <row r="714" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A714" s="7"/>
+    </row>
+    <row r="715" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A715" s="7"/>
+    </row>
+    <row r="716" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A716" s="7"/>
+    </row>
+    <row r="717" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A717" s="7"/>
+    </row>
+    <row r="718" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A718" s="7"/>
+    </row>
+    <row r="719" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A719" s="7"/>
+    </row>
+    <row r="720" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A720" s="7"/>
+    </row>
+    <row r="721" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A721" s="7"/>
+    </row>
+    <row r="722" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A722" s="7"/>
+    </row>
+    <row r="723" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A723" s="7"/>
+    </row>
+    <row r="724" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A724" s="7"/>
+    </row>
+    <row r="725" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A725" s="7"/>
+    </row>
+    <row r="726" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A726" s="7"/>
+    </row>
+    <row r="727" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A727" s="7"/>
+    </row>
+    <row r="728" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A728" s="7"/>
+    </row>
+    <row r="729" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A729" s="7"/>
+    </row>
+    <row r="730" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A730" s="7"/>
+    </row>
+    <row r="731" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A731" s="7"/>
+    </row>
+    <row r="732" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A732" s="7"/>
+    </row>
+    <row r="733" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A733" s="7"/>
+    </row>
+    <row r="734" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A734" s="7"/>
+    </row>
+    <row r="735" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A735" s="7"/>
+    </row>
+    <row r="736" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A736" s="7"/>
+    </row>
+    <row r="737" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A737" s="7"/>
+    </row>
+    <row r="738" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A738" s="7"/>
+    </row>
+    <row r="739" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A739" s="7"/>
+    </row>
+    <row r="740" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A740" s="7"/>
+    </row>
+    <row r="741" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A741" s="7"/>
+    </row>
+    <row r="742" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A742" s="7"/>
+    </row>
+    <row r="743" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A743" s="7"/>
+    </row>
+    <row r="744" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A744" s="7"/>
+    </row>
+    <row r="745" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A745" s="7"/>
+    </row>
+    <row r="746" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A746" s="7"/>
+    </row>
+    <row r="747" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A747" s="7"/>
+    </row>
+    <row r="748" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A748" s="7"/>
+    </row>
+    <row r="749" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A749" s="7"/>
+    </row>
+    <row r="750" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A750" s="7"/>
+    </row>
+    <row r="751" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A751" s="7"/>
+    </row>
+    <row r="752" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A752" s="7"/>
+    </row>
+    <row r="753" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A753" s="7"/>
+    </row>
+    <row r="754" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A754" s="7"/>
+    </row>
+    <row r="755" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A755" s="7"/>
+    </row>
+    <row r="756" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A756" s="7"/>
+    </row>
+    <row r="757" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A757" s="7"/>
+    </row>
+    <row r="758" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A758" s="7"/>
+    </row>
+    <row r="759" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A759" s="7"/>
+    </row>
+    <row r="760" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A760" s="7"/>
+    </row>
+    <row r="761" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A761" s="7"/>
+    </row>
+    <row r="762" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A762" s="7"/>
+    </row>
+    <row r="763" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A763" s="7"/>
+    </row>
+    <row r="764" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A764" s="7"/>
+    </row>
+    <row r="765" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A765" s="7"/>
+    </row>
+    <row r="766" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A766" s="7"/>
+    </row>
+    <row r="767" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A767" s="7"/>
+    </row>
+    <row r="768" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A768" s="7"/>
+    </row>
+    <row r="769" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A769" s="7"/>
+    </row>
+    <row r="770" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A770" s="7"/>
+    </row>
+    <row r="771" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A771" s="7"/>
+    </row>
+    <row r="772" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A772" s="7"/>
+    </row>
+    <row r="773" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A773" s="7"/>
+    </row>
+    <row r="774" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A774" s="7"/>
+    </row>
+    <row r="775" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A775" s="7"/>
+    </row>
+    <row r="776" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A776" s="7"/>
+    </row>
+    <row r="777" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A777" s="7"/>
+    </row>
+    <row r="778" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A778" s="7"/>
+    </row>
+    <row r="779" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A779" s="7"/>
+    </row>
+    <row r="780" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A780" s="7"/>
+    </row>
+    <row r="781" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A781" s="7"/>
+    </row>
+    <row r="782" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A782" s="7"/>
+    </row>
+    <row r="783" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A783" s="7"/>
+    </row>
+    <row r="784" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A784" s="7"/>
+    </row>
+    <row r="785" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A785" s="7"/>
+    </row>
+    <row r="786" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A786" s="7"/>
+    </row>
+    <row r="787" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A787" s="7"/>
+    </row>
+    <row r="788" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A788" s="7"/>
+    </row>
+    <row r="789" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A789" s="7"/>
+    </row>
+    <row r="790" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A790" s="7"/>
+    </row>
+    <row r="791" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A791" s="7"/>
+    </row>
+    <row r="792" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A792" s="7"/>
+    </row>
+    <row r="793" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A793" s="7"/>
+    </row>
+    <row r="794" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A794" s="7"/>
+    </row>
+    <row r="795" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A795" s="7"/>
+    </row>
+    <row r="796" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A796" s="7"/>
+    </row>
+    <row r="797" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A797" s="7"/>
+    </row>
+    <row r="798" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A798" s="7"/>
+    </row>
+    <row r="799" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A799" s="7"/>
+    </row>
+    <row r="800" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A800" s="7"/>
+    </row>
+    <row r="801" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A801" s="7"/>
+    </row>
+    <row r="802" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A802" s="7"/>
+    </row>
+    <row r="803" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A803" s="7"/>
+    </row>
+    <row r="804" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A804" s="7"/>
+    </row>
+    <row r="805" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A805" s="7"/>
+    </row>
+    <row r="806" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A806" s="7"/>
+    </row>
+    <row r="807" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A807" s="7"/>
+    </row>
+    <row r="808" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A808" s="7"/>
+    </row>
+    <row r="809" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A809" s="7"/>
+    </row>
+    <row r="810" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A810" s="7"/>
+    </row>
+    <row r="811" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A811" s="7"/>
+    </row>
+    <row r="812" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A812" s="7"/>
+    </row>
+    <row r="813" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A813" s="7"/>
+    </row>
+    <row r="814" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A814" s="7"/>
+    </row>
+    <row r="815" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A815" s="7"/>
+    </row>
+    <row r="816" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A816" s="7"/>
+    </row>
+    <row r="817" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A817" s="7"/>
+    </row>
+    <row r="818" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A818" s="7"/>
+    </row>
+    <row r="819" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A819" s="7"/>
+    </row>
+    <row r="820" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A820" s="7"/>
+    </row>
+    <row r="821" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A821" s="7"/>
+    </row>
+    <row r="822" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A822" s="7"/>
+    </row>
+    <row r="823" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A823" s="7"/>
+    </row>
+    <row r="824" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A824" s="7"/>
+    </row>
+    <row r="825" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A825" s="7"/>
+    </row>
+    <row r="826" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A826" s="7"/>
+    </row>
+    <row r="827" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A827" s="7"/>
+    </row>
+    <row r="828" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A828" s="7"/>
+    </row>
+    <row r="829" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A829" s="7"/>
+    </row>
+    <row r="830" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A830" s="7"/>
+    </row>
+    <row r="831" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A831" s="7"/>
+    </row>
+    <row r="832" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A832" s="7"/>
+    </row>
+    <row r="833" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A833" s="7"/>
+    </row>
+    <row r="834" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A834" s="7"/>
+    </row>
+    <row r="835" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A835" s="7"/>
+    </row>
+    <row r="836" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A836" s="7"/>
+    </row>
+    <row r="837" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A837" s="7"/>
+    </row>
+    <row r="838" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A838" s="7"/>
+    </row>
+    <row r="839" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A839" s="7"/>
+    </row>
+    <row r="840" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A840" s="7"/>
+    </row>
+    <row r="841" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A841" s="7"/>
+    </row>
+    <row r="842" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A842" s="7"/>
+    </row>
+    <row r="843" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A843" s="7"/>
+    </row>
+    <row r="844" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A844" s="7"/>
+    </row>
+    <row r="845" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A845" s="7"/>
+    </row>
+    <row r="846" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A846" s="7"/>
+    </row>
+    <row r="847" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A847" s="7"/>
+    </row>
+    <row r="848" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A848" s="7"/>
+    </row>
+    <row r="849" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A849" s="7"/>
+    </row>
+    <row r="850" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A850" s="7"/>
+    </row>
+    <row r="851" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A851" s="7"/>
+    </row>
+    <row r="852" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A852" s="7"/>
+    </row>
+    <row r="853" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A853" s="7"/>
+    </row>
+    <row r="854" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A854" s="7"/>
+    </row>
+    <row r="855" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A855" s="7"/>
+    </row>
+    <row r="856" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A856" s="7"/>
+    </row>
+    <row r="857" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A857" s="7"/>
+    </row>
+    <row r="858" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A858" s="7"/>
+    </row>
+    <row r="859" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A859" s="7"/>
+    </row>
+    <row r="860" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A860" s="7"/>
+    </row>
+    <row r="861" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A861" s="7"/>
+    </row>
+    <row r="862" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A862" s="7"/>
+    </row>
+    <row r="863" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A863" s="7"/>
+    </row>
+    <row r="864" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A864" s="7"/>
+    </row>
+    <row r="865" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A865" s="7"/>
+    </row>
+    <row r="866" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A866" s="7"/>
+    </row>
+    <row r="867" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A867" s="7"/>
+    </row>
+    <row r="868" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A868" s="7"/>
+    </row>
+    <row r="869" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A869" s="7"/>
+    </row>
+    <row r="870" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A870" s="7"/>
+    </row>
+    <row r="871" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A871" s="7"/>
+    </row>
+    <row r="872" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A872" s="7"/>
+    </row>
+    <row r="873" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A873" s="7"/>
+    </row>
+    <row r="874" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A874" s="7"/>
+    </row>
+    <row r="875" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A875" s="7"/>
+    </row>
+    <row r="876" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A876" s="7"/>
+    </row>
+    <row r="877" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A877" s="7"/>
+    </row>
+    <row r="878" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A878" s="7"/>
+    </row>
+    <row r="879" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A879" s="7"/>
+    </row>
+    <row r="880" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A880" s="7"/>
+    </row>
+    <row r="881" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A881" s="7"/>
+    </row>
+    <row r="882" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A882" s="7"/>
+    </row>
+    <row r="883" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A883" s="7"/>
+    </row>
+    <row r="884" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A884" s="7"/>
+    </row>
+    <row r="885" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A885" s="7"/>
+    </row>
+    <row r="886" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A886" s="7"/>
+    </row>
+    <row r="887" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A887" s="7"/>
+    </row>
+    <row r="888" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A888" s="7"/>
+    </row>
+    <row r="889" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A889" s="7"/>
+    </row>
+    <row r="890" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A890" s="7"/>
+    </row>
+    <row r="891" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A891" s="7"/>
+    </row>
+    <row r="892" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A892" s="7"/>
+    </row>
+    <row r="893" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A893" s="7"/>
+    </row>
+    <row r="894" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A894" s="7"/>
+    </row>
+    <row r="895" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A895" s="7"/>
+    </row>
+    <row r="896" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A896" s="7"/>
+    </row>
+    <row r="897" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A897" s="7"/>
+    </row>
+    <row r="898" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A898" s="7"/>
+    </row>
+    <row r="899" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A899" s="7"/>
+    </row>
+    <row r="900" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A900" s="7"/>
+    </row>
+    <row r="901" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A901" s="7"/>
+    </row>
+    <row r="902" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A902" s="7"/>
+    </row>
+    <row r="903" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A903" s="7"/>
+    </row>
+    <row r="904" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A904" s="7"/>
+    </row>
+    <row r="905" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A905" s="7"/>
+    </row>
+    <row r="906" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A906" s="7"/>
+    </row>
+    <row r="907" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A907" s="7"/>
+    </row>
+    <row r="908" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A908" s="7"/>
+    </row>
+    <row r="909" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A909" s="7"/>
+    </row>
+    <row r="910" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A910" s="7"/>
+    </row>
+    <row r="911" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A911" s="7"/>
+    </row>
+    <row r="912" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A912" s="7"/>
+    </row>
+    <row r="913" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A913" s="7"/>
+    </row>
+    <row r="914" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A914" s="7"/>
+    </row>
+    <row r="915" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A915" s="7"/>
+    </row>
+    <row r="916" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A916" s="7"/>
+    </row>
+    <row r="917" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A917" s="7"/>
+    </row>
+    <row r="918" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A918" s="7"/>
+    </row>
+    <row r="919" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A919" s="7"/>
+    </row>
+    <row r="920" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A920" s="7"/>
+    </row>
+    <row r="921" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A921" s="7"/>
+    </row>
+    <row r="922" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A922" s="7"/>
+    </row>
+    <row r="923" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A923" s="7"/>
+    </row>
+    <row r="924" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A924" s="7"/>
+    </row>
+    <row r="925" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A925" s="7"/>
+    </row>
+    <row r="926" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A926" s="7"/>
+    </row>
+    <row r="927" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A927" s="7"/>
+    </row>
+    <row r="928" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A928" s="7"/>
+    </row>
+    <row r="929" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A929" s="7"/>
+    </row>
+    <row r="930" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A930" s="7"/>
+    </row>
+    <row r="931" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A931" s="7"/>
+    </row>
+    <row r="932" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A932" s="7"/>
+    </row>
+    <row r="933" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A933" s="7"/>
+    </row>
+    <row r="934" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A934" s="7"/>
+    </row>
+    <row r="935" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A935" s="7"/>
+    </row>
+    <row r="936" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A936" s="7"/>
+    </row>
+    <row r="937" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A937" s="7"/>
+    </row>
+    <row r="938" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A938" s="7"/>
+    </row>
+    <row r="939" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A939" s="7"/>
+    </row>
+    <row r="940" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A940" s="7"/>
+    </row>
+    <row r="941" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A941" s="7"/>
+    </row>
+    <row r="942" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A942" s="7"/>
+    </row>
+    <row r="943" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A943" s="7"/>
+    </row>
+    <row r="944" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A944" s="7"/>
+    </row>
+    <row r="945" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A945" s="7"/>
+    </row>
+    <row r="946" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A946" s="7"/>
+    </row>
+    <row r="947" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A947" s="7"/>
+    </row>
+    <row r="948" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A948" s="7"/>
+    </row>
+    <row r="949" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A949" s="7"/>
+    </row>
+    <row r="950" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A950" s="7"/>
+    </row>
+    <row r="951" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A951" s="7"/>
+    </row>
+    <row r="952" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A952" s="7"/>
+    </row>
+    <row r="953" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A953" s="7"/>
+    </row>
+    <row r="954" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A954" s="7"/>
+    </row>
+    <row r="955" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A955" s="7"/>
+    </row>
+    <row r="956" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A956" s="7"/>
+    </row>
+    <row r="957" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A957" s="7"/>
+    </row>
+    <row r="958" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A958" s="7"/>
+    </row>
+    <row r="959" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A959" s="7"/>
+    </row>
+    <row r="960" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A960" s="7"/>
+    </row>
+    <row r="961" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A961" s="7"/>
+    </row>
+    <row r="962" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A962" s="7"/>
+    </row>
+    <row r="963" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A963" s="7"/>
+    </row>
+    <row r="964" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A964" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248F424D-7B2D-41FA-9307-27C050305B00}">
+  <dimension ref="A1:K14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1342,14 +5029,15 @@
         <v>263</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="1"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="12"/>
       <c r="E2" s="4"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="C3" s="5" t="s">
@@ -1509,28 +5197,110 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:11" s="11" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="C13" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C199"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F37591D9-367F-4A0C-9E4B-E7990E14B855}">
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="11" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="4"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="4"/>
+      <c r="G3" s="14"/>
+      <c r="J3" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:C201"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1551,48 +5321,48 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
+    <row r="2" spans="1:3" s="11" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="11" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>237</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>238</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1600,10 +5370,10 @@
         <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1611,10 +5381,10 @@
         <v>31</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>238</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1622,10 +5392,10 @@
         <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>239</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1633,10 +5403,10 @@
         <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1644,43 +5414,43 @@
         <v>31</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
         <v>39</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C13" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -1688,10 +5458,10 @@
         <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -1699,10 +5469,10 @@
         <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -1710,10 +5480,10 @@
         <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -1721,10 +5491,10 @@
         <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -1732,10 +5502,10 @@
         <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -1743,32 +5513,32 @@
         <v>31</v>
       </c>
       <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
         <v>47</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C21" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1776,10 +5546,10 @@
         <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1787,10 +5557,10 @@
         <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1798,32 +5568,32 @@
         <v>31</v>
       </c>
       <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
         <v>52</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C26" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1831,10 +5601,10 @@
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1842,10 +5612,10 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1853,10 +5623,10 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1864,10 +5634,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1875,10 +5645,10 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1886,10 +5656,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1897,10 +5667,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1908,10 +5678,10 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C34" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1919,10 +5689,10 @@
         <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C35" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1930,10 +5700,10 @@
         <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C36" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1941,10 +5711,10 @@
         <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1952,10 +5722,10 @@
         <v>31</v>
       </c>
       <c r="B38" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C38" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1963,10 +5733,10 @@
         <v>31</v>
       </c>
       <c r="B39" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C39" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1974,10 +5744,10 @@
         <v>31</v>
       </c>
       <c r="B40" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C40" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1985,10 +5755,10 @@
         <v>31</v>
       </c>
       <c r="B41" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C41" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1996,10 +5766,10 @@
         <v>31</v>
       </c>
       <c r="B42" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C42" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2007,10 +5777,10 @@
         <v>31</v>
       </c>
       <c r="B43" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C43" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2018,10 +5788,10 @@
         <v>31</v>
       </c>
       <c r="B44" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C44" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2029,10 +5799,10 @@
         <v>31</v>
       </c>
       <c r="B45" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C45" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2040,10 +5810,10 @@
         <v>31</v>
       </c>
       <c r="B46" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C46" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2051,10 +5821,10 @@
         <v>31</v>
       </c>
       <c r="B47" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C47" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2062,10 +5832,10 @@
         <v>31</v>
       </c>
       <c r="B48" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C48" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2073,10 +5843,10 @@
         <v>31</v>
       </c>
       <c r="B49" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C49" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2084,10 +5854,10 @@
         <v>31</v>
       </c>
       <c r="B50" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C50" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2095,10 +5865,10 @@
         <v>31</v>
       </c>
       <c r="B51" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C51" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2106,10 +5876,10 @@
         <v>31</v>
       </c>
       <c r="B52" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C52" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2117,10 +5887,10 @@
         <v>31</v>
       </c>
       <c r="B53" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C53" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2128,10 +5898,10 @@
         <v>31</v>
       </c>
       <c r="B54" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C54" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2139,10 +5909,10 @@
         <v>31</v>
       </c>
       <c r="B55" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C55" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2150,10 +5920,10 @@
         <v>31</v>
       </c>
       <c r="B56" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C56" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2161,10 +5931,10 @@
         <v>31</v>
       </c>
       <c r="B57" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C57" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2172,10 +5942,10 @@
         <v>31</v>
       </c>
       <c r="B58" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C58" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2183,10 +5953,10 @@
         <v>31</v>
       </c>
       <c r="B59" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C59" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2194,10 +5964,10 @@
         <v>31</v>
       </c>
       <c r="B60" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C60" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2205,10 +5975,10 @@
         <v>31</v>
       </c>
       <c r="B61" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C61" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2216,10 +5986,10 @@
         <v>31</v>
       </c>
       <c r="B62" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C62" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2227,10 +5997,10 @@
         <v>31</v>
       </c>
       <c r="B63" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C63" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2238,10 +6008,10 @@
         <v>31</v>
       </c>
       <c r="B64" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C64" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2249,10 +6019,10 @@
         <v>31</v>
       </c>
       <c r="B65" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C65" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2260,10 +6030,10 @@
         <v>31</v>
       </c>
       <c r="B66" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C66" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2271,10 +6041,10 @@
         <v>31</v>
       </c>
       <c r="B67" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C67" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2282,10 +6052,10 @@
         <v>31</v>
       </c>
       <c r="B68" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C68" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2293,10 +6063,10 @@
         <v>31</v>
       </c>
       <c r="B69" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C69" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2304,10 +6074,10 @@
         <v>31</v>
       </c>
       <c r="B70" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C70" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2315,10 +6085,10 @@
         <v>31</v>
       </c>
       <c r="B71" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C71" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2326,10 +6096,10 @@
         <v>31</v>
       </c>
       <c r="B72" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C72" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2337,10 +6107,10 @@
         <v>31</v>
       </c>
       <c r="B73" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C73" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2348,10 +6118,10 @@
         <v>31</v>
       </c>
       <c r="B74" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C74" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2359,10 +6129,10 @@
         <v>31</v>
       </c>
       <c r="B75" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C75" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2370,10 +6140,10 @@
         <v>31</v>
       </c>
       <c r="B76" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C76" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2381,10 +6151,10 @@
         <v>31</v>
       </c>
       <c r="B77" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C77" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2392,10 +6162,10 @@
         <v>31</v>
       </c>
       <c r="B78" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C78" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2403,10 +6173,10 @@
         <v>31</v>
       </c>
       <c r="B79" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C79" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2414,10 +6184,10 @@
         <v>31</v>
       </c>
       <c r="B80" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C80" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2425,10 +6195,10 @@
         <v>31</v>
       </c>
       <c r="B81" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C81" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2436,10 +6206,10 @@
         <v>31</v>
       </c>
       <c r="B82" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C82" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2447,10 +6217,10 @@
         <v>31</v>
       </c>
       <c r="B83" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C83" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2458,10 +6228,10 @@
         <v>31</v>
       </c>
       <c r="B84" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C84" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2469,10 +6239,10 @@
         <v>31</v>
       </c>
       <c r="B85" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C85" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2480,10 +6250,10 @@
         <v>31</v>
       </c>
       <c r="B86" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C86" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2491,10 +6261,10 @@
         <v>31</v>
       </c>
       <c r="B87" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C87" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2502,10 +6272,10 @@
         <v>31</v>
       </c>
       <c r="B88" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C88" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2513,10 +6283,10 @@
         <v>31</v>
       </c>
       <c r="B89" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C89" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2524,10 +6294,10 @@
         <v>31</v>
       </c>
       <c r="B90" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C90" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2535,10 +6305,10 @@
         <v>31</v>
       </c>
       <c r="B91" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C91" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2546,10 +6316,10 @@
         <v>31</v>
       </c>
       <c r="B92" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C92" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2557,10 +6327,10 @@
         <v>31</v>
       </c>
       <c r="B93" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C93" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2568,10 +6338,10 @@
         <v>31</v>
       </c>
       <c r="B94" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C94" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2579,10 +6349,10 @@
         <v>31</v>
       </c>
       <c r="B95" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C95" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2590,10 +6360,10 @@
         <v>31</v>
       </c>
       <c r="B96" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C96" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2601,10 +6371,10 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C97" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2612,10 +6382,10 @@
         <v>31</v>
       </c>
       <c r="B98" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C98" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2623,10 +6393,10 @@
         <v>31</v>
       </c>
       <c r="B99" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C99" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2634,10 +6404,10 @@
         <v>31</v>
       </c>
       <c r="B100" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C100" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2645,10 +6415,10 @@
         <v>31</v>
       </c>
       <c r="B101" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C101" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2656,10 +6426,10 @@
         <v>31</v>
       </c>
       <c r="B102" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C102" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2667,10 +6437,10 @@
         <v>31</v>
       </c>
       <c r="B103" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C103" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2678,10 +6448,10 @@
         <v>31</v>
       </c>
       <c r="B104" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C104" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2689,10 +6459,10 @@
         <v>31</v>
       </c>
       <c r="B105" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C105" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2700,10 +6470,10 @@
         <v>31</v>
       </c>
       <c r="B106" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C106" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2711,10 +6481,10 @@
         <v>31</v>
       </c>
       <c r="B107" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C107" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2722,10 +6492,10 @@
         <v>31</v>
       </c>
       <c r="B108" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C108" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2733,10 +6503,10 @@
         <v>31</v>
       </c>
       <c r="B109" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C109" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2744,10 +6514,10 @@
         <v>31</v>
       </c>
       <c r="B110" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C110" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2755,10 +6525,10 @@
         <v>31</v>
       </c>
       <c r="B111" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C111" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2766,10 +6536,10 @@
         <v>31</v>
       </c>
       <c r="B112" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C112" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2777,10 +6547,10 @@
         <v>31</v>
       </c>
       <c r="B113" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C113" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2788,10 +6558,10 @@
         <v>31</v>
       </c>
       <c r="B114" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C114" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2799,10 +6569,10 @@
         <v>31</v>
       </c>
       <c r="B115" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C115" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2810,10 +6580,10 @@
         <v>31</v>
       </c>
       <c r="B116" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C116" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2821,10 +6591,10 @@
         <v>31</v>
       </c>
       <c r="B117" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C117" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2832,10 +6602,10 @@
         <v>31</v>
       </c>
       <c r="B118" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C118" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2843,10 +6613,10 @@
         <v>31</v>
       </c>
       <c r="B119" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C119" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2854,10 +6624,10 @@
         <v>31</v>
       </c>
       <c r="B120" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C120" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2865,10 +6635,10 @@
         <v>31</v>
       </c>
       <c r="B121" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C121" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2876,10 +6646,10 @@
         <v>31</v>
       </c>
       <c r="B122" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C122" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2887,10 +6657,10 @@
         <v>31</v>
       </c>
       <c r="B123" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C123" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2898,10 +6668,10 @@
         <v>31</v>
       </c>
       <c r="B124" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C124" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2909,10 +6679,10 @@
         <v>31</v>
       </c>
       <c r="B125" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C125" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2920,10 +6690,10 @@
         <v>31</v>
       </c>
       <c r="B126" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C126" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2931,10 +6701,10 @@
         <v>31</v>
       </c>
       <c r="B127" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C127" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2942,10 +6712,10 @@
         <v>31</v>
       </c>
       <c r="B128" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C128" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2953,10 +6723,10 @@
         <v>31</v>
       </c>
       <c r="B129" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C129" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2964,10 +6734,10 @@
         <v>31</v>
       </c>
       <c r="B130" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C130" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2975,10 +6745,10 @@
         <v>31</v>
       </c>
       <c r="B131" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C131" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2986,10 +6756,10 @@
         <v>31</v>
       </c>
       <c r="B132" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C132" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2997,10 +6767,10 @@
         <v>31</v>
       </c>
       <c r="B133" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C133" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3008,10 +6778,10 @@
         <v>31</v>
       </c>
       <c r="B134" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C134" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3019,10 +6789,10 @@
         <v>31</v>
       </c>
       <c r="B135" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C135" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3030,10 +6800,10 @@
         <v>31</v>
       </c>
       <c r="B136" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C136" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3041,10 +6811,10 @@
         <v>31</v>
       </c>
       <c r="B137" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C137" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3052,10 +6822,10 @@
         <v>31</v>
       </c>
       <c r="B138" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C138" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3063,10 +6833,10 @@
         <v>31</v>
       </c>
       <c r="B139" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C139" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3074,10 +6844,10 @@
         <v>31</v>
       </c>
       <c r="B140" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C140" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3085,10 +6855,10 @@
         <v>31</v>
       </c>
       <c r="B141" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C141" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3096,10 +6866,10 @@
         <v>31</v>
       </c>
       <c r="B142" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C142" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3107,10 +6877,10 @@
         <v>31</v>
       </c>
       <c r="B143" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C143" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3118,10 +6888,10 @@
         <v>31</v>
       </c>
       <c r="B144" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C144" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3129,10 +6899,10 @@
         <v>31</v>
       </c>
       <c r="B145" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C145" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3140,10 +6910,10 @@
         <v>31</v>
       </c>
       <c r="B146" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C146" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3151,10 +6921,10 @@
         <v>31</v>
       </c>
       <c r="B147" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C147" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3162,10 +6932,10 @@
         <v>31</v>
       </c>
       <c r="B148" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C148" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3173,10 +6943,10 @@
         <v>31</v>
       </c>
       <c r="B149" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C149" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3184,10 +6954,10 @@
         <v>31</v>
       </c>
       <c r="B150" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C150" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3195,10 +6965,10 @@
         <v>31</v>
       </c>
       <c r="B151" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C151" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3206,10 +6976,10 @@
         <v>31</v>
       </c>
       <c r="B152" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C152" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3217,10 +6987,10 @@
         <v>31</v>
       </c>
       <c r="B153" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C153" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3228,10 +6998,10 @@
         <v>31</v>
       </c>
       <c r="B154" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C154" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3239,10 +7009,10 @@
         <v>31</v>
       </c>
       <c r="B155" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C155" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3250,10 +7020,10 @@
         <v>31</v>
       </c>
       <c r="B156" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C156" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3261,10 +7031,10 @@
         <v>31</v>
       </c>
       <c r="B157" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C157" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3272,10 +7042,10 @@
         <v>31</v>
       </c>
       <c r="B158" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C158" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3283,10 +7053,10 @@
         <v>31</v>
       </c>
       <c r="B159" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C159" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3294,10 +7064,10 @@
         <v>31</v>
       </c>
       <c r="B160" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C160" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3305,10 +7075,10 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C161" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3316,10 +7086,10 @@
         <v>31</v>
       </c>
       <c r="B162" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C162" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3327,10 +7097,10 @@
         <v>31</v>
       </c>
       <c r="B163" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C163" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3338,10 +7108,10 @@
         <v>31</v>
       </c>
       <c r="B164" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C164" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3349,10 +7119,10 @@
         <v>31</v>
       </c>
       <c r="B165" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C165" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3360,10 +7130,10 @@
         <v>31</v>
       </c>
       <c r="B166" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C166" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3371,10 +7141,10 @@
         <v>31</v>
       </c>
       <c r="B167" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C167" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3382,10 +7152,10 @@
         <v>31</v>
       </c>
       <c r="B168" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C168" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3393,10 +7163,10 @@
         <v>31</v>
       </c>
       <c r="B169" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C169" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3404,10 +7174,10 @@
         <v>31</v>
       </c>
       <c r="B170" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C170" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3415,10 +7185,10 @@
         <v>31</v>
       </c>
       <c r="B171" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C171" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3426,10 +7196,10 @@
         <v>31</v>
       </c>
       <c r="B172" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C172" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3437,10 +7207,10 @@
         <v>31</v>
       </c>
       <c r="B173" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C173" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3448,10 +7218,10 @@
         <v>31</v>
       </c>
       <c r="B174" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C174" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3459,10 +7229,10 @@
         <v>31</v>
       </c>
       <c r="B175" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C175" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3470,10 +7240,10 @@
         <v>31</v>
       </c>
       <c r="B176" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C176" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3481,10 +7251,10 @@
         <v>31</v>
       </c>
       <c r="B177" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C177" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3492,10 +7262,10 @@
         <v>31</v>
       </c>
       <c r="B178" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C178" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3503,10 +7273,10 @@
         <v>31</v>
       </c>
       <c r="B179" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C179" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3514,10 +7284,10 @@
         <v>31</v>
       </c>
       <c r="B180" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C180" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3525,10 +7295,10 @@
         <v>31</v>
       </c>
       <c r="B181" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C181" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3536,10 +7306,10 @@
         <v>31</v>
       </c>
       <c r="B182" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C182" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3547,10 +7317,10 @@
         <v>31</v>
       </c>
       <c r="B183" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C183" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3558,10 +7328,10 @@
         <v>31</v>
       </c>
       <c r="B184" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C184" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3569,10 +7339,10 @@
         <v>31</v>
       </c>
       <c r="B185" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C185" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3580,10 +7350,10 @@
         <v>31</v>
       </c>
       <c r="B186" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C186" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3591,10 +7361,10 @@
         <v>31</v>
       </c>
       <c r="B187" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C187" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3602,10 +7372,10 @@
         <v>31</v>
       </c>
       <c r="B188" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C188" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3613,10 +7383,10 @@
         <v>31</v>
       </c>
       <c r="B189" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C189" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3624,10 +7394,10 @@
         <v>31</v>
       </c>
       <c r="B190" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C190" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3635,10 +7405,10 @@
         <v>31</v>
       </c>
       <c r="B191" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C191" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3646,10 +7416,10 @@
         <v>31</v>
       </c>
       <c r="B192" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C192" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3657,10 +7427,10 @@
         <v>31</v>
       </c>
       <c r="B193" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C193" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3668,10 +7438,10 @@
         <v>31</v>
       </c>
       <c r="B194" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C194" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3679,10 +7449,10 @@
         <v>31</v>
       </c>
       <c r="B195" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C195" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3690,10 +7460,10 @@
         <v>31</v>
       </c>
       <c r="B196" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C196" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3701,10 +7471,10 @@
         <v>31</v>
       </c>
       <c r="B197" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C197" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3712,10 +7482,10 @@
         <v>31</v>
       </c>
       <c r="B198" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C198" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3723,9 +7493,31 @@
         <v>31</v>
       </c>
       <c r="B199" t="s">
+        <v>225</v>
+      </c>
+      <c r="C199" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B200" t="s">
+        <v>226</v>
+      </c>
+      <c r="C200" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B201" t="s">
         <v>227</v>
       </c>
-      <c r="C199" t="s">
+      <c r="C201" t="s">
         <v>227</v>
       </c>
     </row>
@@ -3740,12 +7532,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{769F93AD-2A70-4DD2-A169-0433B4A27062}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3794,13 +7586,29 @@
         <v>264</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>295</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>

--- a/forms/tables/exampleTable/forms/exampleTable/exampleTable.xlsx
+++ b/forms/tables/exampleTable/forms/exampleTable/exampleTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\apps\cwbc\cwbc-odkx-app\forms\tables\exampleTable\forms\exampleTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CF390E-0CDC-41EC-ADE0-338686E31E70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697ADFD5-181B-487A-8AFD-812CB9716502}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9045" yWindow="3450" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5505" yWindow="3300" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -931,10 +931,10 @@
     <t>Section 2</t>
   </si>
   <si>
-    <t>Similar to user_branch type, displays a list of available sections, links, and additional completion taken from [branch_label]_complete variable in form</t>
-  </si>
-  <si>
     <t>Presents a checkbox to mark section as complete. Name should match branch name for tracking on custom_contents_page</t>
+  </si>
+  <si>
+    <t>Similar to user_branch type, displays a list of available sections, links, and additional completion taken from [branch_label]_complete variable in form. The list of sections should be defined in choices</t>
   </si>
 </sst>
 </file>
@@ -1478,7 +1478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T964"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -1548,7 +1548,7 @@
       <c r="S2" s="7"/>
       <c r="T2" s="7"/>
     </row>
-    <row r="3" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -1562,7 +1562,7 @@
         <v>292</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
@@ -4984,8 +4984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248F424D-7B2D-41FA-9307-27C050305B00}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5205,7 +5205,7 @@
         <v>293</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">

--- a/forms/tables/exampleTable/forms/exampleTable/exampleTable.xlsx
+++ b/forms/tables/exampleTable/forms/exampleTable/exampleTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\apps\cwbc\cwbc-odkx-app\forms\tables\exampleTable\forms\exampleTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697ADFD5-181B-487A-8AFD-812CB9716502}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B028B8F4-3585-44FF-8278-328B4B25303B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5505" yWindow="3300" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="299">
   <si>
     <t>type</t>
   </si>
@@ -43,9 +43,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>text</t>
-  </si>
-  <si>
     <t>yesno</t>
   </si>
   <si>
@@ -124,9 +121,6 @@
     <t>Templates Example Form</t>
   </si>
   <si>
-    <t>../../../../assets/templates/custom_date_picker.handlebars</t>
-  </si>
-  <si>
     <t>comment</t>
   </si>
   <si>
@@ -805,9 +799,6 @@
     <t>Select a number from 1-5 (invalid will display warning only)</t>
   </si>
   <si>
-    <t>../../../../assets/templates/custom_datetime_picker.handlebars</t>
-  </si>
-  <si>
     <t>../../../../assets/templates/custom_select_autocomplete_datalist.handlebars</t>
   </si>
   <si>
@@ -935,6 +926,12 @@
   </si>
   <si>
     <t>Similar to user_branch type, displays a list of available sections, links, and additional completion taken from [branch_label]_complete variable in form. The list of sections should be defined in choices</t>
+  </si>
+  <si>
+    <t>custom_date_picker</t>
+  </si>
+  <si>
+    <t>custom_datetime_picker</t>
   </si>
 </sst>
 </file>
@@ -1478,8 +1475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T964"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1490,25 +1487,25 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
@@ -1526,7 +1523,7 @@
     </row>
     <row r="2" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -1553,16 +1550,16 @@
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
       <c r="D3" s="18" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
@@ -1581,7 +1578,7 @@
     <row r="4" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="20" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -1604,7 +1601,7 @@
     </row>
     <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -1631,11 +1628,11 @@
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="20" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G6" s="24"/>
       <c r="H6" s="10"/>
@@ -1655,7 +1652,7 @@
     <row r="7" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -1681,11 +1678,11 @@
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="20" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G8" s="24"/>
       <c r="H8" s="10"/>
@@ -1705,7 +1702,7 @@
     <row r="9" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="20" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -1728,7 +1725,7 @@
     </row>
     <row r="10" spans="1:20" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -1755,11 +1752,11 @@
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="20" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G11" s="24"/>
       <c r="H11" s="10"/>
@@ -1779,7 +1776,7 @@
     <row r="12" spans="1:20" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="20" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -1805,11 +1802,11 @@
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="20" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G13" s="24"/>
       <c r="H13" s="10"/>
@@ -1829,7 +1826,7 @@
     <row r="14" spans="1:20" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="20" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -1852,7 +1849,7 @@
     </row>
     <row r="15" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -1879,11 +1876,11 @@
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="20" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G16" s="24"/>
       <c r="H16" s="10"/>
@@ -1903,7 +1900,7 @@
     <row r="17" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -4984,8 +4981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248F424D-7B2D-41FA-9307-27C050305B00}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4996,42 +4993,42 @@
   <sheetData>
     <row r="1" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="13"/>
@@ -5039,102 +5036,98 @@
       <c r="E2" s="4"/>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="C3" s="5" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>298</v>
+      </c>
+      <c r="E4" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>25</v>
       </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="5"/>
+      <c r="H4" s="5" t="s">
         <v>256</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="C5" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
         <v>229</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" t="s">
-        <v>231</v>
-      </c>
       <c r="F5" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D6" s="1"/>
       <c r="F6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="C7" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D7" s="1"/>
       <c r="F7" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="C9" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>249</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>251</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -5145,16 +5138,16 @@
     </row>
     <row r="10" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="C10" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="H10" s="5" t="s">
         <v>252</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>254</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -5165,16 +5158,16 @@
     </row>
     <row r="11" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="C11" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="K11" t="b">
         <v>1</v>
@@ -5182,16 +5175,16 @@
     </row>
     <row r="12" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C12" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>264</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>267</v>
       </c>
       <c r="K12" t="b">
         <v>1</v>
@@ -5199,18 +5192,18 @@
     </row>
     <row r="13" spans="1:11" s="11" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="C13" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="H13" s="14" t="s">
         <v>295</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -5230,39 +5223,39 @@
   <sheetData>
     <row r="1" spans="1:10" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="11" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="13"/>
@@ -5270,18 +5263,18 @@
       <c r="E2" s="4"/>
       <c r="G2" s="14"/>
       <c r="H2" s="11" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="13"/>
@@ -5312,2213 +5305,2213 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="11" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="11" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C35" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C36" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C37" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C38" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B39" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C39" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B40" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C40" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C41" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C42" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B44" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C44" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B45" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C45" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B46" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C46" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B47" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C47" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B48" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C48" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B49" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C49" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B50" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C50" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B51" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C51" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B52" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C52" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B53" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C53" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B54" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C54" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B55" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C55" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B56" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C56" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B57" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C57" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B58" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C58" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B59" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C59" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B60" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C60" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B61" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C61" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B62" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C62" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B63" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C63" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B64" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C64" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B65" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C65" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B66" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C66" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B67" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C67" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B68" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C68" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B69" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C69" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B70" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C70" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B71" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C71" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B72" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C72" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B73" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C73" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B74" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C74" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B75" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C75" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B76" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C76" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B77" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C77" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B78" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C78" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B79" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C79" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B80" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C80" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B81" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C81" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B82" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C82" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B83" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C83" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B84" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C84" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B85" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C85" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B86" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C86" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B87" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C87" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B88" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C88" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B89" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C89" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B90" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C90" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B91" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C91" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B92" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C92" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B93" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C93" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B94" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C94" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C95" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B96" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C96" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B97" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C97" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B98" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C98" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B99" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C99" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B100" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C100" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B101" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C101" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B102" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C102" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B103" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C103" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B104" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C104" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B105" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C105" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B106" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C106" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B107" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C107" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B108" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C108" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B109" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C109" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B110" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C110" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B111" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C111" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B112" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C112" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B113" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C113" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B114" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C114" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B115" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C115" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B116" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C116" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B117" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C117" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B118" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C118" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B119" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C119" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B120" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C120" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B121" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C121" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B122" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C122" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B123" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C123" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B124" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C124" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B125" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C125" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B126" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C126" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B127" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C127" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B128" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C128" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B129" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C129" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B130" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C130" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B131" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C131" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B132" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C132" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B133" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C133" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B134" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C134" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B135" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C135" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B136" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C136" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B137" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C137" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B138" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C138" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B139" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C139" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B140" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C140" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B141" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C141" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B142" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C142" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B143" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C143" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B144" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C144" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B145" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C145" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B146" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C146" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B147" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C147" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B148" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C148" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B149" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C149" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B150" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C150" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B151" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C151" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B152" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C152" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B153" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C153" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B154" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C154" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B155" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C155" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B156" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C156" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B157" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C157" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B158" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C158" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C159" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B160" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C160" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B161" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C161" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B162" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C162" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B163" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C163" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B164" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C164" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B165" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C165" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B166" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C166" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B167" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C167" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B168" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C168" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B169" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C169" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B170" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C170" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B171" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C171" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B172" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C172" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B173" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C173" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B174" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C174" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B175" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C175" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B176" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C176" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B177" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C177" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B178" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C178" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B179" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C179" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B180" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C180" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B181" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C181" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B182" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C182" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B183" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C183" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B184" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C184" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B185" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C185" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B186" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C186" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B187" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C187" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B188" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C188" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B189" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C189" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B190" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C190" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B191" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C191" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B192" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C192" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B193" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C193" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B194" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C194" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B195" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C195" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B196" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C196" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B197" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C197" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B198" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C198" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B199" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C199" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B200" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C200" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B201" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C201" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -7534,10 +7527,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{769F93AD-2A70-4DD2-A169-0433B4A27062}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7551,55 +7544,71 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>295</v>
+        <v>292</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B9" t="s">
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -7625,26 +7634,26 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
         <v>20200308</v>
@@ -7652,18 +7661,18 @@
     </row>
     <row r="4" spans="1:3" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.65" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/forms/tables/exampleTable/forms/exampleTable/exampleTable.xlsx
+++ b/forms/tables/exampleTable/forms/exampleTable/exampleTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\apps\cwbc\cwbc-odkx-app\forms\tables\exampleTable\forms\exampleTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B028B8F4-3585-44FF-8278-328B4B25303B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E46118-50C1-400C-84CA-1C9C17DA42F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="303">
   <si>
     <t>type</t>
   </si>
@@ -847,9 +847,6 @@
     <t>../config/assets/templates/custom_test_screen.handlebars</t>
   </si>
   <si>
-    <t>The custom screen will also contain information about any questions in the section</t>
-  </si>
-  <si>
     <t>branch_label</t>
   </si>
   <si>
@@ -932,6 +929,21 @@
   </si>
   <si>
     <t>custom_datetime_picker</t>
+  </si>
+  <si>
+    <t>custom_prompts_screen</t>
+  </si>
+  <si>
+    <t>custom_note_test</t>
+  </si>
+  <si>
+    <t>Example custom screen with template copied from examples</t>
+  </si>
+  <si>
+    <t>custom screen template, extends standard screen template so that all prompts are displayed in the same way as standard screen, with additional method to fix scroll position issue</t>
+  </si>
+  <si>
+    <t>This is a custom screen that has additonal render methods to fix a bug where sometimes the scroll position would not set correctly</t>
   </si>
 </sst>
 </file>
@@ -989,22 +1001,26 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1487,7 +1503,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>19</v>
@@ -1505,7 +1521,7 @@
         <v>11</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
@@ -1523,7 +1539,7 @@
     </row>
     <row r="2" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -1550,16 +1566,16 @@
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
       <c r="D3" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
@@ -1578,7 +1594,7 @@
     <row r="4" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -1601,7 +1617,7 @@
     </row>
     <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -1628,11 +1644,11 @@
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G6" s="24"/>
       <c r="H6" s="10"/>
@@ -1652,7 +1668,7 @@
     <row r="7" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -1678,11 +1694,11 @@
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G8" s="24"/>
       <c r="H8" s="10"/>
@@ -1702,7 +1718,7 @@
     <row r="9" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -1725,7 +1741,7 @@
     </row>
     <row r="10" spans="1:20" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -1752,11 +1768,11 @@
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G11" s="24"/>
       <c r="H11" s="10"/>
@@ -1776,7 +1792,7 @@
     <row r="12" spans="1:20" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -1802,11 +1818,11 @@
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G13" s="24"/>
       <c r="H13" s="10"/>
@@ -1826,7 +1842,7 @@
     <row r="14" spans="1:20" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -1849,7 +1865,7 @@
     </row>
     <row r="15" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -1876,11 +1892,11 @@
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G16" s="24"/>
       <c r="H16" s="10"/>
@@ -1900,7 +1916,7 @@
     <row r="17" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -4981,8 +4997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248F424D-7B2D-41FA-9307-27C050305B00}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5038,7 +5054,7 @@
     </row>
     <row r="3" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="C3" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E3" t="s">
         <v>22</v>
@@ -5053,7 +5069,7 @@
     </row>
     <row r="4" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E4" t="s">
         <v>24</v>
@@ -5192,13 +5208,13 @@
     </row>
     <row r="13" spans="1:11" s="11" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="C13" s="14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -5213,13 +5229,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F37591D9-367F-4A0C-9E4B-E7990E14B855}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.7109375" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
@@ -5243,17 +5268,17 @@
       <c r="G1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="J1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="11" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:10" s="11" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>21</v>
       </c>
@@ -5263,13 +5288,13 @@
       <c r="E2" s="4"/>
       <c r="G2" s="14"/>
       <c r="H2" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="I2" s="11" t="s">
         <v>267</v>
       </c>
+      <c r="I2" s="14" t="s">
+        <v>269</v>
+      </c>
       <c r="J2" s="14" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -5281,7 +5306,64 @@
       <c r="D3" s="12"/>
       <c r="E3" s="4"/>
       <c r="G3" s="14"/>
-      <c r="J3" s="14"/>
+      <c r="I3" s="14"/>
+    </row>
+    <row r="4" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="11" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="12"/>
+      <c r="C5" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="12"/>
+      <c r="C6" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C7" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C8" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="14" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5316,24 +5398,24 @@
     </row>
     <row r="2" spans="1:3" s="11" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>282</v>
-      </c>
       <c r="C2" s="14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="11" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -7584,15 +7666,15 @@
         <v>233</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>291</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -7600,7 +7682,7 @@
         <v>231</v>
       </c>
       <c r="B8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -7608,7 +7690,7 @@
         <v>231</v>
       </c>
       <c r="B9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>

--- a/forms/tables/exampleTable/forms/exampleTable/exampleTable.xlsx
+++ b/forms/tables/exampleTable/forms/exampleTable/exampleTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\apps\cwbc\cwbc-odkx-app\forms\tables\exampleTable\forms\exampleTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E46118-50C1-400C-84CA-1C9C17DA42F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F82131A-5710-46CD-8160-3F57136F3A24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5232,15 +5232,18 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
     <col min="8" max="8" width="31.7109375" customWidth="1"/>
     <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="39.85546875" customWidth="1"/>
